--- a/Kode/Server2/Logs/lora_node1/2020-05-22.xlsx
+++ b/Kode/Server2/Logs/lora_node1/2020-05-22.xlsx
@@ -4623,7 +4623,7 @@
         <v>0.015</v>
       </c>
       <c r="F213" t="n">
-        <v>2.994e-05</v>
+        <v>0.02994</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>0.015</v>
       </c>
       <c r="F214" t="n">
-        <v>3.078e-05</v>
+        <v>0.03078</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>0.015</v>
       </c>
       <c r="F215" t="n">
-        <v>3.162000000000001e-05</v>
+        <v>0.03162000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>0.015</v>
       </c>
       <c r="F216" t="n">
-        <v>3.246e-05</v>
+        <v>0.03246</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>0.015</v>
       </c>
       <c r="F217" t="n">
-        <v>3.33e-05</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>0.015</v>
       </c>
       <c r="F218" t="n">
-        <v>3.414e-05</v>
+        <v>0.03414</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>0.015</v>
       </c>
       <c r="F219" t="n">
-        <v>3.492e-05</v>
+        <v>0.03492</v>
       </c>
     </row>
     <row r="220">
@@ -4783,7 +4783,7 @@
         <v>0.015</v>
       </c>
       <c r="F221" t="n">
-        <v>3.642e-05</v>
+        <v>0.03642</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>0.015</v>
       </c>
       <c r="F222" t="n">
-        <v>3.696e-05</v>
+        <v>0.03696</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>0.03</v>
       </c>
       <c r="F223" t="n">
-        <v>7.524e-05</v>
+        <v>0.07524</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>0.03</v>
       </c>
       <c r="F224" t="n">
-        <v>7.656e-05</v>
+        <v>0.07656</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>0.03</v>
       </c>
       <c r="F225" t="n">
-        <v>7.8e-05</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>0.09</v>
       </c>
       <c r="F226" t="n">
-        <v>0.00022464</v>
+        <v>0.22464</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>0.12</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0002855999999999999</v>
+        <v>0.2855999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>0.18</v>
       </c>
       <c r="F228" t="n">
-        <v>0.00042264</v>
+        <v>0.42264</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>0.21</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00047208</v>
+        <v>0.47208</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>0.255</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0005803800000000001</v>
+        <v>0.5803800000000001</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>0.24</v>
       </c>
       <c r="F231" t="n">
-        <v>0.00055392</v>
+        <v>0.55392</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>0.27</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0006231600000000001</v>
+        <v>0.62316</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>0.3</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0006828000000000001</v>
+        <v>0.6828000000000001</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>0.315</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0007257600000000001</v>
+        <v>0.7257600000000001</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>0.36</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0007992</v>
+        <v>0.7992</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>0.36</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0008294400000000001</v>
+        <v>0.8294400000000001</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>0.405</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0009217800000000001</v>
+        <v>0.92178</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>0.405</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0009201599999999999</v>
+        <v>0.92016</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>0.45</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0009936000000000001</v>
+        <v>0.9936</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>0.45</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0010134</v>
+        <v>1.0134</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>0.48</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0010752</v>
+        <v>1.0752</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>0.495</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0011286</v>
+        <v>1.1286</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>0.525</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0011865</v>
+        <v>1.1865</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0012432</v>
+        <v>1.2432</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F245" t="n">
-        <v>0.00126984</v>
+        <v>1.26984</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>0.615</v>
       </c>
       <c r="F246" t="n">
-        <v>0.001353</v>
+        <v>1.353</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>0.615</v>
       </c>
       <c r="F247" t="n">
-        <v>0.00139728</v>
+        <v>1.39728</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F248" t="n">
-        <v>0.00143616</v>
+        <v>1.43616</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0015012</v>
+        <v>1.5012</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F250" t="n">
-        <v>0.001518</v>
+        <v>1.518</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>0.735</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00159642</v>
+        <v>1.59642</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>0.765</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00166158</v>
+        <v>1.66158</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00177762</v>
+        <v>1.77762</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>0.825</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0018612</v>
+        <v>1.8612</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>0.84</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0018984</v>
+        <v>1.8984</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0019476</v>
+        <v>1.9476</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00204972</v>
+        <v>2.04972</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>0.975</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0021216</v>
+        <v>2.1216</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>0.99</v>
       </c>
       <c r="F259" t="n">
-        <v>0.00217008</v>
+        <v>2.17008</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>1.005</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00224316</v>
+        <v>2.24316</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>1.05</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0022848</v>
+        <v>2.2848</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>1.08</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00238032</v>
+        <v>2.38032</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>1.11</v>
       </c>
       <c r="F263" t="n">
-        <v>0.00242868</v>
+        <v>2.42868</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>1.125</v>
       </c>
       <c r="F264" t="n">
-        <v>0.002457</v>
+        <v>2.457</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>1.155</v>
       </c>
       <c r="F265" t="n">
-        <v>0.00253176</v>
+        <v>2.53176</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>1.185</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00262122</v>
+        <v>2.62122</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>1.2</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0026976</v>
+        <v>2.6976</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>1.23</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00274044</v>
+        <v>2.74044</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>1.26</v>
       </c>
       <c r="F269" t="n">
-        <v>0.00283752</v>
+        <v>2.83752</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>1.29</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00284316</v>
+        <v>2.84316</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>1.335</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00296904</v>
+        <v>2.96904</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>1.35</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0030294</v>
+        <v>3.0294</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>1.38</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00303048</v>
+        <v>3.03048</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>1.5</v>
       </c>
       <c r="F274" t="n">
-        <v>0.002838</v>
+        <v>2.838</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>1.545</v>
       </c>
       <c r="F275" t="n">
-        <v>0.00280572</v>
+        <v>2.80572</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>1.56</v>
       </c>
       <c r="F276" t="n">
-        <v>0.00284544</v>
+        <v>2.84544</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>1.59</v>
       </c>
       <c r="F277" t="n">
-        <v>0.00291288</v>
+        <v>2.91288</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>1.62</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0029808</v>
+        <v>2.9808</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>1.635</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00302802</v>
+        <v>3.02802</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>1.65</v>
       </c>
       <c r="F280" t="n">
-        <v>0.003069</v>
+        <v>3.069</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>1.695</v>
       </c>
       <c r="F281" t="n">
-        <v>0.00316626</v>
+        <v>3.16626</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>1.71</v>
       </c>
       <c r="F282" t="n">
-        <v>0.00320796</v>
+        <v>3.20796</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>1.74</v>
       </c>
       <c r="F283" t="n">
-        <v>0.00328512</v>
+        <v>3.28512</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>1.77</v>
       </c>
       <c r="F284" t="n">
-        <v>0.00335592</v>
+        <v>3.35592</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>1.8</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0034272</v>
+        <v>3.4272</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>1.815</v>
       </c>
       <c r="F286" t="n">
-        <v>0.00347028</v>
+        <v>3.47028</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>1.83</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0035136</v>
+        <v>3.5136</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>1.86</v>
       </c>
       <c r="F288" t="n">
-        <v>0.003586079999999999</v>
+        <v>3.586079999999999</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>1.89</v>
       </c>
       <c r="F289" t="n">
-        <v>0.00365904</v>
+        <v>3.65904</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>1.92</v>
       </c>
       <c r="F290" t="n">
-        <v>0.00374016</v>
+        <v>3.74016</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>1.935</v>
       </c>
       <c r="F291" t="n">
-        <v>0.00378486</v>
+        <v>3.78486</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>1.98</v>
       </c>
       <c r="F292" t="n">
-        <v>0.00388872</v>
+        <v>3.88872</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>2.01</v>
       </c>
       <c r="F293" t="n">
-        <v>0.00396372</v>
+        <v>3.963719999999999</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>2.025</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0040176</v>
+        <v>4.0176</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>2.055</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00409356</v>
+        <v>4.09356</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>2.07</v>
       </c>
       <c r="F296" t="n">
-        <v>0.00414</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>2.1</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0042252</v>
+        <v>4.2252</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>2.115</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0042723</v>
+        <v>4.2723</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>2.16</v>
       </c>
       <c r="F299" t="n">
-        <v>0.00438048</v>
+        <v>4.38048</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>2.19</v>
       </c>
       <c r="F300" t="n">
-        <v>0.00444132</v>
+        <v>4.44132</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>2.22</v>
       </c>
       <c r="F301" t="n">
-        <v>0.00451992</v>
+        <v>4.51992</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>2.25</v>
       </c>
       <c r="F302" t="n">
-        <v>0.004581</v>
+        <v>4.581</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>2.28</v>
       </c>
       <c r="F303" t="n">
-        <v>0.004651199999999999</v>
+        <v>4.651199999999999</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>2.295</v>
       </c>
       <c r="F304" t="n">
-        <v>0.00469098</v>
+        <v>4.69098</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>2.34</v>
       </c>
       <c r="F305" t="n">
-        <v>0.00480168</v>
+        <v>4.80168</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>2.37</v>
       </c>
       <c r="F306" t="n">
-        <v>0.00485376</v>
+        <v>4.85376</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>2.385</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0049131</v>
+        <v>4.9131</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>2.415</v>
       </c>
       <c r="F308" t="n">
-        <v>0.00498456</v>
+        <v>4.98456</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>2.445</v>
       </c>
       <c r="F309" t="n">
-        <v>0.0050367</v>
+        <v>5.0367</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>2.49</v>
       </c>
       <c r="F310" t="n">
-        <v>0.00511944</v>
+        <v>5.11944</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>2.505</v>
       </c>
       <c r="F311" t="n">
-        <v>0.00519036</v>
+        <v>5.19036</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>2.52</v>
       </c>
       <c r="F312" t="n">
-        <v>0.0052416</v>
+        <v>5.2416</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>2.565</v>
       </c>
       <c r="F313" t="n">
-        <v>0.005324939999999999</v>
+        <v>5.32494</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>2.58</v>
       </c>
       <c r="F314" t="n">
-        <v>0.005345760000000001</v>
+        <v>5.34576</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>2.595</v>
       </c>
       <c r="F315" t="n">
-        <v>0.005387219999999999</v>
+        <v>5.387219999999999</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>2.625</v>
       </c>
       <c r="F316" t="n">
-        <v>0.005481</v>
+        <v>5.481</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>2.655</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0055224</v>
+        <v>5.5224</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>2.685</v>
       </c>
       <c r="F318" t="n">
-        <v>0.00557406</v>
+        <v>5.574059999999999</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>2.715</v>
       </c>
       <c r="F319" t="n">
-        <v>0.00561462</v>
+        <v>5.61462</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>2.73</v>
       </c>
       <c r="F320" t="n">
-        <v>0.00570024</v>
+        <v>5.70024</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>2.76</v>
       </c>
       <c r="F321" t="n">
-        <v>0.005773919999999999</v>
+        <v>5.773919999999999</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>2.79</v>
       </c>
       <c r="F322" t="n">
-        <v>0.005881320000000001</v>
+        <v>5.881320000000001</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>2.805</v>
       </c>
       <c r="F323" t="n">
-        <v>0.005924159999999999</v>
+        <v>5.924159999999999</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>2.82</v>
       </c>
       <c r="F324" t="n">
-        <v>0.005899440000000001</v>
+        <v>5.89944</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>2.85</v>
       </c>
       <c r="F325" t="n">
-        <v>0.006019200000000001</v>
+        <v>6.019200000000001</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>2.895</v>
       </c>
       <c r="F326" t="n">
-        <v>0.006114240000000001</v>
+        <v>6.114240000000001</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>2.895</v>
       </c>
       <c r="F327" t="n">
-        <v>0.00609108</v>
+        <v>6.09108</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>2.925</v>
       </c>
       <c r="F328" t="n">
-        <v>0.006165899999999999</v>
+        <v>6.1659</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>2.97</v>
       </c>
       <c r="F329" t="n">
-        <v>0.00627264</v>
+        <v>6.27264</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>2.985</v>
       </c>
       <c r="F330" t="n">
-        <v>0.00631626</v>
+        <v>6.31626</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>3.03</v>
       </c>
       <c r="F331" t="n">
-        <v>0.006387240000000001</v>
+        <v>6.38724</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>3.075</v>
       </c>
       <c r="F332" t="n">
-        <v>0.0064329</v>
+        <v>6.4329</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>3.105</v>
       </c>
       <c r="F333" t="n">
-        <v>0.00650808</v>
+        <v>6.508080000000001</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>3.135</v>
       </c>
       <c r="F334" t="n">
-        <v>0.00667128</v>
+        <v>6.67128</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>3.165</v>
       </c>
       <c r="F335" t="n">
-        <v>0.006747780000000001</v>
+        <v>6.747780000000001</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>3.195</v>
       </c>
       <c r="F336" t="n">
-        <v>0.00674784</v>
+        <v>6.74784</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>3.21</v>
       </c>
       <c r="F337" t="n">
-        <v>0.00683088</v>
+        <v>6.830880000000001</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>3.255</v>
       </c>
       <c r="F338" t="n">
-        <v>0.00692664</v>
+        <v>6.926640000000001</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>3.285</v>
       </c>
       <c r="F339" t="n">
-        <v>0.006872219999999999</v>
+        <v>6.87222</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>3.3</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0069432</v>
+        <v>6.9432</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>3.345</v>
       </c>
       <c r="F341" t="n">
-        <v>0.00706464</v>
+        <v>7.06464</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>3.375</v>
       </c>
       <c r="F342" t="n">
-        <v>0.007182</v>
+        <v>7.182</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>3.39</v>
       </c>
       <c r="F343" t="n">
-        <v>0.0072546</v>
+        <v>7.2546</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>3.45</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0072726</v>
+        <v>7.2726</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>3.495</v>
       </c>
       <c r="F345" t="n">
-        <v>0.00749328</v>
+        <v>7.493279999999999</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>3.54</v>
       </c>
       <c r="F346" t="n">
-        <v>0.00756144</v>
+        <v>7.56144</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>3.615</v>
       </c>
       <c r="F347" t="n">
-        <v>0.007736099999999999</v>
+        <v>7.7361</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>3.66</v>
       </c>
       <c r="F348" t="n">
-        <v>0.00781776</v>
+        <v>7.81776</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>3.72</v>
       </c>
       <c r="F349" t="n">
-        <v>0.00790128</v>
+        <v>7.90128</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>3.765</v>
       </c>
       <c r="F350" t="n">
-        <v>0.007906499999999999</v>
+        <v>7.906499999999999</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>3.795</v>
       </c>
       <c r="F351" t="n">
-        <v>0.0081213</v>
+        <v>8.1213</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>3.84</v>
       </c>
       <c r="F352" t="n">
-        <v>0.00824832</v>
+        <v>8.24832</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>3.9</v>
       </c>
       <c r="F353" t="n">
-        <v>0.0082212</v>
+        <v>8.2212</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>3.915</v>
       </c>
       <c r="F354" t="n">
-        <v>0.008378099999999999</v>
+        <v>8.3781</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>3.96</v>
       </c>
       <c r="F355" t="n">
-        <v>0.0083952</v>
+        <v>8.395200000000001</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>3.96</v>
       </c>
       <c r="F356" t="n">
-        <v>0.008506080000000001</v>
+        <v>8.506080000000001</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>3.975</v>
       </c>
       <c r="F357" t="n">
-        <v>0.008395199999999998</v>
+        <v>8.395199999999999</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>4.005</v>
       </c>
       <c r="F358" t="n">
-        <v>0.00853866</v>
+        <v>8.53866</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>4.005</v>
       </c>
       <c r="F359" t="n">
-        <v>0.008490600000000001</v>
+        <v>8.490600000000001</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>4.02</v>
       </c>
       <c r="F360" t="n">
-        <v>0.00869928</v>
+        <v>8.69928</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>4.05</v>
       </c>
       <c r="F361" t="n">
-        <v>0.0086508</v>
+        <v>8.6508</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>4.065</v>
       </c>
       <c r="F362" t="n">
-        <v>0.008731619999999999</v>
+        <v>8.731619999999999</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>4.08</v>
       </c>
       <c r="F363" t="n">
-        <v>0.008714880000000001</v>
+        <v>8.714880000000001</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F364" t="n">
-        <v>0.008844719999999999</v>
+        <v>8.844719999999999</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>4.14</v>
       </c>
       <c r="F365" t="n">
-        <v>0.008876160000000001</v>
+        <v>8.87616</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>4.155</v>
       </c>
       <c r="F366" t="n">
-        <v>0.00885846</v>
+        <v>8.858460000000001</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>4.185</v>
       </c>
       <c r="F367" t="n">
-        <v>0.009022859999999999</v>
+        <v>9.02286</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>4.215</v>
       </c>
       <c r="F368" t="n">
-        <v>0.008885220000000001</v>
+        <v>8.88522</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>4.26</v>
       </c>
       <c r="F369" t="n">
-        <v>0.008997120000000001</v>
+        <v>8.997120000000001</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>4.274999999999999</v>
       </c>
       <c r="F370" t="n">
-        <v>0.009233999999999999</v>
+        <v>9.234</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>4.32</v>
       </c>
       <c r="F371" t="n">
-        <v>0.009158400000000001</v>
+        <v>9.1584</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>4.35</v>
       </c>
       <c r="F372" t="n">
-        <v>0.0093612</v>
+        <v>9.3612</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>4.395</v>
       </c>
       <c r="F373" t="n">
-        <v>0.009475619999999999</v>
+        <v>9.475619999999999</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>4.425</v>
       </c>
       <c r="F374" t="n">
-        <v>0.009487199999999999</v>
+        <v>9.4872</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>4.47</v>
       </c>
       <c r="F375" t="n">
-        <v>0.009583679999999999</v>
+        <v>9.583679999999999</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>4.545</v>
       </c>
       <c r="F376" t="n">
-        <v>0.009617219999999999</v>
+        <v>9.61722</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>4.605</v>
       </c>
       <c r="F377" t="n">
-        <v>0.00979944</v>
+        <v>9.799439999999999</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>4.649999999999999</v>
       </c>
       <c r="F378" t="n">
-        <v>0.0098952</v>
+        <v>9.895199999999999</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>4.694999999999999</v>
       </c>
       <c r="F379" t="n">
-        <v>0.01006608</v>
+        <v>10.06608</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>4.74</v>
       </c>
       <c r="F380" t="n">
-        <v>0.01010568</v>
+        <v>10.10568</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>4.785</v>
       </c>
       <c r="F381" t="n">
-        <v>0.01018248</v>
+        <v>10.18248</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>4.845</v>
       </c>
       <c r="F382" t="n">
-        <v>0.01031016</v>
+        <v>10.31016</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>4.89</v>
       </c>
       <c r="F383" t="n">
-        <v>0.0106602</v>
+        <v>10.6602</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>4.935</v>
       </c>
       <c r="F384" t="n">
-        <v>0.01060038</v>
+        <v>10.60038</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>5.01</v>
       </c>
       <c r="F385" t="n">
-        <v>0.0107214</v>
+        <v>10.7214</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>5.04</v>
       </c>
       <c r="F386" t="n">
-        <v>0.01084608</v>
+        <v>10.84608</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>5.115</v>
       </c>
       <c r="F387" t="n">
-        <v>0.01088472</v>
+        <v>10.88472</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>5.145</v>
       </c>
       <c r="F388" t="n">
-        <v>0.01088682</v>
+        <v>10.88682</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>5.205</v>
       </c>
       <c r="F389" t="n">
-        <v>0.01105542</v>
+        <v>11.05542</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>5.265</v>
       </c>
       <c r="F390" t="n">
-        <v>0.01114074</v>
+        <v>11.14074</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>5.34</v>
       </c>
       <c r="F391" t="n">
-        <v>0.01144896</v>
+        <v>11.44896</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F392" t="n">
-        <v>0.011556</v>
+        <v>11.556</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>5.475</v>
       </c>
       <c r="F393" t="n">
-        <v>0.0116946</v>
+        <v>11.6946</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>5.565</v>
       </c>
       <c r="F394" t="n">
-        <v>0.01186458</v>
+        <v>11.86458</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>5.64</v>
       </c>
       <c r="F395" t="n">
-        <v>0.01202448</v>
+        <v>12.02448</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>5.715</v>
       </c>
       <c r="F396" t="n">
-        <v>0.0121158</v>
+        <v>12.1158</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>5.805</v>
       </c>
       <c r="F397" t="n">
-        <v>0.01226016</v>
+        <v>12.26016</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>5.925</v>
       </c>
       <c r="F398" t="n">
-        <v>0.0126795</v>
+        <v>12.6795</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>6.045</v>
       </c>
       <c r="F399" t="n">
-        <v>0.0130572</v>
+        <v>13.0572</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>6.194999999999999</v>
       </c>
       <c r="F400" t="n">
-        <v>0.01310862</v>
+        <v>13.10862</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>6.33</v>
       </c>
       <c r="F401" t="n">
-        <v>0.01331832</v>
+        <v>13.31832</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>6.465</v>
       </c>
       <c r="F402" t="n">
-        <v>0.0135765</v>
+        <v>13.5765</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>6.6</v>
       </c>
       <c r="F403" t="n">
-        <v>0.0142296</v>
+        <v>14.2296</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>6.72</v>
       </c>
       <c r="F404" t="n">
-        <v>0.01430016</v>
+        <v>14.30016</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>6.795</v>
       </c>
       <c r="F405" t="n">
-        <v>0.01445976</v>
+        <v>14.45976</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>6.885</v>
       </c>
       <c r="F406" t="n">
-        <v>0.01465128</v>
+        <v>14.65128</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>6.96</v>
       </c>
       <c r="F407" t="n">
-        <v>0.0148944</v>
+        <v>14.8944</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>7.05</v>
       </c>
       <c r="F408" t="n">
-        <v>0.0148614</v>
+        <v>14.8614</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>7.14</v>
       </c>
       <c r="F409" t="n">
-        <v>0.0151368</v>
+        <v>15.1368</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>7.185</v>
       </c>
       <c r="F410" t="n">
-        <v>0.01526094</v>
+        <v>15.26094</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>7.215</v>
       </c>
       <c r="F411" t="n">
-        <v>0.01535352</v>
+        <v>15.35352</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>7.23</v>
       </c>
       <c r="F412" t="n">
-        <v>0.01538544</v>
+        <v>15.38544</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>7.245</v>
       </c>
       <c r="F413" t="n">
-        <v>0.01544634</v>
+        <v>15.44634</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>7.274999999999999</v>
       </c>
       <c r="F414" t="n">
-        <v>0.0155394</v>
+        <v>15.5394</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>7.29</v>
       </c>
       <c r="F415" t="n">
-        <v>0.01557144</v>
+        <v>15.57144</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>7.335</v>
       </c>
       <c r="F416" t="n">
-        <v>0.01563822</v>
+        <v>15.63822</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>7.41</v>
       </c>
       <c r="F417" t="n">
-        <v>0.01576848</v>
+        <v>15.76848</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>7.47</v>
       </c>
       <c r="F418" t="n">
-        <v>0.01577664</v>
+        <v>15.77664</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>7.5</v>
       </c>
       <c r="F419" t="n">
-        <v>0.01584</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>7.8</v>
       </c>
       <c r="F420" t="n">
-        <v>0.0164736</v>
+        <v>16.4736</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>7.949999999999999</v>
       </c>
       <c r="F421" t="n">
-        <v>0.0165678</v>
+        <v>16.5678</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>8.07</v>
       </c>
       <c r="F422" t="n">
-        <v>0.01688244</v>
+        <v>16.88244</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>8.205</v>
       </c>
       <c r="F423" t="n">
-        <v>0.01709922</v>
+        <v>17.09922</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>8.34</v>
       </c>
       <c r="F424" t="n">
-        <v>0.01748064</v>
+        <v>17.48064</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>8.49</v>
       </c>
       <c r="F425" t="n">
-        <v>0.01776108</v>
+        <v>17.76108</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="F426" t="n">
-        <v>0.0181656</v>
+        <v>18.1656</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>8.969999999999999</v>
       </c>
       <c r="F427" t="n">
-        <v>0.01794</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>9.299999999999999</v>
       </c>
       <c r="F428" t="n">
-        <v>0.0185628</v>
+        <v>18.5628</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>9.674999999999999</v>
       </c>
       <c r="F429" t="n">
-        <v>0.0195048</v>
+        <v>19.5048</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>10.065</v>
       </c>
       <c r="F430" t="n">
-        <v>0.02045208</v>
+        <v>20.45208</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>10.38</v>
       </c>
       <c r="F431" t="n">
-        <v>0.02121672</v>
+        <v>21.21672</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>10.605</v>
       </c>
       <c r="F432" t="n">
-        <v>0.02171904</v>
+        <v>21.71904</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>10.755</v>
       </c>
       <c r="F433" t="n">
-        <v>0.02211228</v>
+        <v>22.11228</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>10.86</v>
       </c>
       <c r="F434" t="n">
-        <v>0.0223716</v>
+        <v>22.3716</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>11.025</v>
       </c>
       <c r="F435" t="n">
-        <v>0.0227556</v>
+        <v>22.7556</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>11.25</v>
       </c>
       <c r="F436" t="n">
-        <v>0.02331</v>
+        <v>23.31</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>11.49</v>
       </c>
       <c r="F437" t="n">
-        <v>0.02385324</v>
+        <v>23.85324</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>11.655</v>
       </c>
       <c r="F438" t="n">
-        <v>0.02433564</v>
+        <v>24.33564</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>11.805</v>
       </c>
       <c r="F439" t="n">
-        <v>0.02483772</v>
+        <v>24.83772</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>11.94</v>
       </c>
       <c r="F440" t="n">
-        <v>0.02550384</v>
+        <v>25.50384</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>11.91</v>
       </c>
       <c r="F441" t="n">
-        <v>0.02534448</v>
+        <v>25.34448</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>11.775</v>
       </c>
       <c r="F442" t="n">
-        <v>0.0248217</v>
+        <v>24.8217</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>11.43</v>
       </c>
       <c r="F443" t="n">
-        <v>0.02395728</v>
+        <v>23.95728</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>10.98</v>
       </c>
       <c r="F444" t="n">
-        <v>0.02266272</v>
+        <v>22.66272</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>11.19</v>
       </c>
       <c r="F445" t="n">
-        <v>0.02323044</v>
+        <v>23.23044</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>12.63</v>
       </c>
       <c r="F446" t="n">
-        <v>0.02682612</v>
+        <v>26.82612</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>13.71</v>
       </c>
       <c r="F447" t="n">
-        <v>0.02917488</v>
+        <v>29.17488</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>14.055</v>
       </c>
       <c r="F448" t="n">
-        <v>0.02990904</v>
+        <v>29.90904</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>14.325</v>
       </c>
       <c r="F449" t="n">
-        <v>0.0304836</v>
+        <v>30.4836</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>14.655</v>
       </c>
       <c r="F450" t="n">
-        <v>0.03142032</v>
+        <v>31.42032</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>15.06</v>
       </c>
       <c r="F451" t="n">
-        <v>0.03277056</v>
+        <v>32.77056</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>15.555</v>
       </c>
       <c r="F452" t="n">
-        <v>0.03428322</v>
+        <v>34.28322</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>15.99</v>
       </c>
       <c r="F453" t="n">
-        <v>0.035178</v>
+        <v>35.178</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>16.35</v>
       </c>
       <c r="F454" t="n">
-        <v>0.0362316</v>
+        <v>36.2316</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>16.635</v>
       </c>
       <c r="F455" t="n">
-        <v>0.03639738</v>
+        <v>36.39738</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>16.86</v>
       </c>
       <c r="F456" t="n">
-        <v>0.03635016</v>
+        <v>36.35016</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>16.995</v>
       </c>
       <c r="F457" t="n">
-        <v>0.03677718</v>
+        <v>36.77718</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>17.16</v>
       </c>
       <c r="F458" t="n">
-        <v>0.03679104</v>
+        <v>36.79104</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>17.355</v>
       </c>
       <c r="F459" t="n">
-        <v>0.03741738</v>
+        <v>37.41738</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>17.64</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0384552</v>
+        <v>38.4552</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>18</v>
       </c>
       <c r="F461" t="n">
-        <v>0.03931200000000001</v>
+        <v>39.312</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>18.36</v>
       </c>
       <c r="F462" t="n">
-        <v>0.0400248</v>
+        <v>40.0248</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>18.69</v>
       </c>
       <c r="F463" t="n">
-        <v>0.0407442</v>
+        <v>40.7442</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>18.855</v>
       </c>
       <c r="F464" t="n">
-        <v>0.04057596</v>
+        <v>40.57596</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>18.63</v>
       </c>
       <c r="F465" t="n">
-        <v>0.04046436</v>
+        <v>40.46436</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>18.15</v>
       </c>
       <c r="F466" t="n">
-        <v>0.0402204</v>
+        <v>40.22040000000001</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>17.1</v>
       </c>
       <c r="F467" t="n">
-        <v>0.0372096</v>
+        <v>37.2096</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>15.225</v>
       </c>
       <c r="F468" t="n">
-        <v>0.03337320000000001</v>
+        <v>33.37320000000001</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>14.34</v>
       </c>
       <c r="F469" t="n">
-        <v>0.03131856</v>
+        <v>31.31856</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>14.025</v>
       </c>
       <c r="F470" t="n">
-        <v>0.0305184</v>
+        <v>30.5184</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>13.05</v>
       </c>
       <c r="F471" t="n">
-        <v>0.0278748</v>
+        <v>27.8748</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>11.805</v>
       </c>
       <c r="F472" t="n">
-        <v>0.02568768</v>
+        <v>25.68768</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>11.985</v>
       </c>
       <c r="F473" t="n">
-        <v>0.02617524</v>
+        <v>26.17524</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>12.555</v>
       </c>
       <c r="F474" t="n">
-        <v>0.02721924</v>
+        <v>27.21924</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>13.59</v>
       </c>
       <c r="F475" t="n">
-        <v>0.02957184</v>
+        <v>29.57184</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>13.035</v>
       </c>
       <c r="F476" t="n">
-        <v>0.02820774</v>
+        <v>28.20774</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>13.68</v>
       </c>
       <c r="F477" t="n">
-        <v>0.0295488</v>
+        <v>29.5488</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>13.59</v>
       </c>
       <c r="F478" t="n">
-        <v>0.02913696</v>
+        <v>29.13696</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>13.485</v>
       </c>
       <c r="F479" t="n">
-        <v>0.02977488</v>
+        <v>29.77488</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>13.365</v>
       </c>
       <c r="F480" t="n">
-        <v>0.02876148</v>
+        <v>28.76148</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>13.335</v>
       </c>
       <c r="F481" t="n">
-        <v>0.02885694</v>
+        <v>28.85694</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>13.26</v>
       </c>
       <c r="F482" t="n">
-        <v>0.02874768</v>
+        <v>28.74768</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>13.215</v>
       </c>
       <c r="F483" t="n">
-        <v>0.02833296</v>
+        <v>28.33296</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>13.185</v>
       </c>
       <c r="F484" t="n">
-        <v>0.02884878</v>
+        <v>28.84878</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>13.2</v>
       </c>
       <c r="F485" t="n">
-        <v>0.0288816</v>
+        <v>28.8816</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>13.215</v>
       </c>
       <c r="F486" t="n">
-        <v>0.02886156</v>
+        <v>28.86156</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>13.26</v>
       </c>
       <c r="F487" t="n">
-        <v>0.02795208</v>
+        <v>27.95208</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>13.305</v>
       </c>
       <c r="F488" t="n">
-        <v>0.02964354</v>
+        <v>29.64354</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>13.41</v>
       </c>
       <c r="F489" t="n">
-        <v>0.02918016</v>
+        <v>29.18016</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>13.5</v>
       </c>
       <c r="F490" t="n">
-        <v>0.029592</v>
+        <v>29.592</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>13.665</v>
       </c>
       <c r="F491" t="n">
-        <v>0.03011766</v>
+        <v>30.11766</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>13.8</v>
       </c>
       <c r="F492" t="n">
-        <v>0.029808</v>
+        <v>29.808</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>13.965</v>
       </c>
       <c r="F493" t="n">
-        <v>0.03061128</v>
+        <v>30.61128</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>14.16</v>
       </c>
       <c r="F494" t="n">
-        <v>0.0317184</v>
+        <v>31.7184</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>14.31</v>
       </c>
       <c r="F495" t="n">
-        <v>0.03159648</v>
+        <v>31.59648</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>14.475</v>
       </c>
       <c r="F496" t="n">
-        <v>0.0313818</v>
+        <v>31.3818</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>14.67</v>
       </c>
       <c r="F497" t="n">
-        <v>0.03215664</v>
+        <v>32.15664</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>14.835</v>
       </c>
       <c r="F498" t="n">
-        <v>0.03150954</v>
+        <v>31.50954</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>15</v>
       </c>
       <c r="F499" t="n">
-        <v>0.03276</v>
+        <v>32.76</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>15.195</v>
       </c>
       <c r="F500" t="n">
-        <v>0.03294276</v>
+        <v>32.94276</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>15.405</v>
       </c>
       <c r="F501" t="n">
-        <v>0.03432234000000001</v>
+        <v>34.32234</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>15.63</v>
       </c>
       <c r="F502" t="n">
-        <v>0.03432348</v>
+        <v>34.32348</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>15.855</v>
       </c>
       <c r="F503" t="n">
-        <v>0.03500784</v>
+        <v>35.00784</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>16.23</v>
       </c>
       <c r="F504" t="n">
-        <v>0.03583584000000001</v>
+        <v>35.83584</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>16.155</v>
       </c>
       <c r="F505" t="n">
-        <v>0.03534714000000001</v>
+        <v>35.34714000000001</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>16.305</v>
       </c>
       <c r="F506" t="n">
-        <v>0.03495792</v>
+        <v>34.95792</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>15.45</v>
       </c>
       <c r="F507" t="n">
-        <v>0.03392820000000001</v>
+        <v>33.92820000000001</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>15.135</v>
       </c>
       <c r="F508" t="n">
-        <v>0.03293376</v>
+        <v>32.93376</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>15.945</v>
       </c>
       <c r="F509" t="n">
-        <v>0.03533412</v>
+        <v>35.33412</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>16.89</v>
       </c>
       <c r="F510" t="n">
-        <v>0.03614460000000001</v>
+        <v>36.14460000000001</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>16.89</v>
       </c>
       <c r="F511" t="n">
-        <v>0.03702288</v>
+        <v>37.02288</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>16.875</v>
       </c>
       <c r="F512" t="n">
-        <v>0.03699</v>
+        <v>36.99</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>16.725</v>
       </c>
       <c r="F513" t="n">
-        <v>0.03646049999999999</v>
+        <v>36.4605</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>16.635</v>
       </c>
       <c r="F514" t="n">
-        <v>0.03633084</v>
+        <v>36.33084</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>16.41</v>
       </c>
       <c r="F515" t="n">
-        <v>0.03616764000000001</v>
+        <v>36.16764000000001</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>16.26</v>
       </c>
       <c r="F516" t="n">
-        <v>0.0351216</v>
+        <v>35.1216</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>16.32</v>
       </c>
       <c r="F517" t="n">
-        <v>0.0365568</v>
+        <v>36.5568</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>16.965</v>
       </c>
       <c r="F518" t="n">
-        <v>0.03637296</v>
+        <v>36.37296000000001</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>17.445</v>
       </c>
       <c r="F519" t="n">
-        <v>0.03775098</v>
+        <v>37.75098000000001</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>17.79</v>
       </c>
       <c r="F520" t="n">
-        <v>0.03928032</v>
+        <v>39.28032</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>18.105</v>
       </c>
       <c r="F521" t="n">
-        <v>0.03932406</v>
+        <v>39.32406</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>18.54</v>
       </c>
       <c r="F522" t="n">
-        <v>0.03960144</v>
+        <v>39.60144</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>18.975</v>
       </c>
       <c r="F523" t="n">
-        <v>0.0406065</v>
+        <v>40.6065</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>19.26</v>
       </c>
       <c r="F524" t="n">
-        <v>0.04183272</v>
+        <v>41.83271999999999</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>19.35</v>
       </c>
       <c r="F525" t="n">
-        <v>0.0416412</v>
+        <v>41.6412</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>19.425</v>
       </c>
       <c r="F526" t="n">
-        <v>0.04296810000000001</v>
+        <v>42.96810000000001</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>19.665</v>
       </c>
       <c r="F527" t="n">
-        <v>0.04271238</v>
+        <v>42.71238</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>20.265</v>
       </c>
       <c r="F528" t="n">
-        <v>0.0441777</v>
+        <v>44.1777</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>20.865</v>
       </c>
       <c r="F529" t="n">
-        <v>0.04573608</v>
+        <v>45.73608</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>21.195</v>
       </c>
       <c r="F530" t="n">
-        <v>0.04595076</v>
+        <v>45.95076</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>21.075</v>
       </c>
       <c r="F531" t="n">
-        <v>0.0458592</v>
+        <v>45.8592</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>20.01</v>
       </c>
       <c r="F532" t="n">
-        <v>0.04346172</v>
+        <v>43.46172</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>20.88</v>
       </c>
       <c r="F533" t="n">
-        <v>0.04526784</v>
+        <v>45.26784</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>21.015</v>
       </c>
       <c r="F534" t="n">
-        <v>0.04598082</v>
+        <v>45.98082</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>20.85</v>
       </c>
       <c r="F535" t="n">
-        <v>0.0456198</v>
+        <v>45.61980000000001</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>20.43</v>
       </c>
       <c r="F536" t="n">
-        <v>0.04396536</v>
+        <v>43.96536</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>19.725</v>
       </c>
       <c r="F537" t="n">
-        <v>0.0435528</v>
+        <v>43.5528</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>19.32</v>
       </c>
       <c r="F538" t="n">
-        <v>0.04242672</v>
+        <v>42.42672</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>19.305</v>
       </c>
       <c r="F539" t="n">
-        <v>0.04100382</v>
+        <v>41.00382</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>19.575</v>
       </c>
       <c r="F540" t="n">
-        <v>0.0431433</v>
+        <v>43.1433</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>19.11</v>
       </c>
       <c r="F541" t="n">
-        <v>0.0424242</v>
+        <v>42.4242</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>21.285</v>
       </c>
       <c r="F542" t="n">
-        <v>0.04699728</v>
+        <v>46.99728</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>22.425</v>
       </c>
       <c r="F543" t="n">
-        <v>0.04888650000000001</v>
+        <v>48.88650000000001</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>25.005</v>
       </c>
       <c r="F544" t="n">
-        <v>0.05471094</v>
+        <v>54.71094</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>27.12</v>
       </c>
       <c r="F545" t="n">
-        <v>0.0591216</v>
+        <v>59.1216</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>29.625</v>
       </c>
       <c r="F546" t="n">
-        <v>0.06517500000000001</v>
+        <v>65.17500000000001</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>30.885</v>
       </c>
       <c r="F547" t="n">
-        <v>0.06720576</v>
+        <v>67.20576</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>33.81</v>
       </c>
       <c r="F548" t="n">
-        <v>0.07370580000000002</v>
+        <v>73.70580000000001</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>37.005</v>
       </c>
       <c r="F549" t="n">
-        <v>0.08096693999999999</v>
+        <v>80.96693999999999</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>40.08</v>
       </c>
       <c r="F550" t="n">
-        <v>0.08785536000000001</v>
+        <v>87.85536</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>43.305</v>
       </c>
       <c r="F551" t="n">
-        <v>0.09509778000000001</v>
+        <v>95.09778</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>46.62</v>
       </c>
       <c r="F552" t="n">
-        <v>0.10237752</v>
+        <v>102.37752</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>49.98</v>
       </c>
       <c r="F553" t="n">
-        <v>0.109956</v>
+        <v>109.956</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>53.205</v>
       </c>
       <c r="F554" t="n">
-        <v>0.117051</v>
+        <v>117.051</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>55.845</v>
       </c>
       <c r="F555" t="n">
-        <v>0.122859</v>
+        <v>122.859</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>54.495</v>
       </c>
       <c r="F556" t="n">
-        <v>0.12010698</v>
+        <v>120.10698</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>57.21</v>
       </c>
       <c r="F557" t="n">
-        <v>0.125862</v>
+        <v>125.862</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>61.62</v>
       </c>
       <c r="F558" t="n">
-        <v>0.135564</v>
+        <v>135.564</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>50.55</v>
       </c>
       <c r="F559" t="n">
-        <v>0.1110078</v>
+        <v>111.0078</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>55.73999999999999</v>
       </c>
       <c r="F560" t="n">
-        <v>0.122628</v>
+        <v>122.628</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>59.385</v>
       </c>
       <c r="F561" t="n">
-        <v>0.13088454</v>
+        <v>130.88454</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>60.54</v>
       </c>
       <c r="F562" t="n">
-        <v>0.13343016</v>
+        <v>133.43016</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>58.26</v>
       </c>
       <c r="F563" t="n">
-        <v>0.12840504</v>
+        <v>128.40504</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>72.95999999999999</v>
       </c>
       <c r="F564" t="n">
-        <v>0.16167936</v>
+        <v>161.67936</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>75.66</v>
       </c>
       <c r="F565" t="n">
-        <v>0.16766256</v>
+        <v>167.66256</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>77.36999999999999</v>
       </c>
       <c r="F566" t="n">
-        <v>0.17052348</v>
+        <v>170.52348</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>79.605</v>
       </c>
       <c r="F567" t="n">
-        <v>0.17608626</v>
+        <v>176.08626</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>65.52</v>
       </c>
       <c r="F568" t="n">
-        <v>0.14440608</v>
+        <v>144.40608</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>72.735</v>
       </c>
       <c r="F569" t="n">
-        <v>0.16118076</v>
+        <v>161.18076</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>88.14</v>
       </c>
       <c r="F570" t="n">
-        <v>0.19602336</v>
+        <v>196.02336</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>90.47999999999999</v>
       </c>
       <c r="F571" t="n">
-        <v>0.2008656</v>
+        <v>200.8656</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>93.42</v>
       </c>
       <c r="F572" t="n">
-        <v>0.20776608</v>
+        <v>207.76608</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>96.255</v>
       </c>
       <c r="F573" t="n">
-        <v>0.21407112</v>
+        <v>214.07112</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>99.255</v>
       </c>
       <c r="F574" t="n">
-        <v>0.2203461</v>
+        <v>220.3461</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>102.315</v>
       </c>
       <c r="F575" t="n">
-        <v>0.22795782</v>
+        <v>227.95782</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>105.27</v>
       </c>
       <c r="F576" t="n">
-        <v>0.23496264</v>
+        <v>234.96264</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>108.525</v>
       </c>
       <c r="F577" t="n">
-        <v>0.2422278</v>
+        <v>242.2278</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>111.765</v>
       </c>
       <c r="F578" t="n">
-        <v>0.24990654</v>
+        <v>249.90654</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>114.96</v>
       </c>
       <c r="F579" t="n">
-        <v>0.25705056</v>
+        <v>257.05056</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11963,7 @@
         <v>118.08</v>
       </c>
       <c r="F580" t="n">
-        <v>0.2644992</v>
+        <v>264.4992</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11983,7 @@
         <v>121.035</v>
       </c>
       <c r="F581" t="n">
-        <v>0.2716025400000001</v>
+        <v>271.6025400000001</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12003,7 @@
         <v>123.9</v>
       </c>
       <c r="F582" t="n">
-        <v>0.2785272</v>
+        <v>278.5272</v>
       </c>
     </row>
     <row r="583">
@@ -12023,7 +12023,7 @@
         <v>126.645</v>
       </c>
       <c r="F583" t="n">
-        <v>0.28469796</v>
+        <v>284.69796</v>
       </c>
     </row>
     <row r="584">
@@ -12043,7 +12043,7 @@
         <v>128.985</v>
       </c>
       <c r="F584" t="n">
-        <v>0.28995828</v>
+        <v>289.95828</v>
       </c>
     </row>
     <row r="585">
@@ -12063,7 +12063,7 @@
         <v>131.25</v>
       </c>
       <c r="F585" t="n">
-        <v>0.29505</v>
+        <v>295.05</v>
       </c>
     </row>
     <row r="586">
@@ -12083,7 +12083,7 @@
         <v>133.185</v>
       </c>
       <c r="F586" t="n">
-        <v>0.29993262</v>
+        <v>299.93262</v>
       </c>
     </row>
     <row r="587">
@@ -12103,7 +12103,7 @@
         <v>134.925</v>
       </c>
       <c r="F587" t="n">
-        <v>0.3027717</v>
+        <v>302.7717</v>
       </c>
     </row>
     <row r="588">
@@ -12123,7 +12123,7 @@
         <v>136.32</v>
       </c>
       <c r="F588" t="n">
-        <v>0.30753792</v>
+        <v>307.53792</v>
       </c>
     </row>
     <row r="589">
@@ -12143,7 +12143,7 @@
         <v>137.4</v>
       </c>
       <c r="F589" t="n">
-        <v>0.3099744</v>
+        <v>309.9744</v>
       </c>
     </row>
     <row r="590">
@@ -12163,7 +12163,7 @@
         <v>138.315</v>
       </c>
       <c r="F590" t="n">
-        <v>0.31148538</v>
+        <v>311.48538</v>
       </c>
     </row>
     <row r="591">
@@ -12183,7 +12183,7 @@
         <v>139.095</v>
       </c>
       <c r="F591" t="n">
-        <v>0.31379832</v>
+        <v>313.79832</v>
       </c>
     </row>
     <row r="592">
@@ -12203,7 +12203,7 @@
         <v>139.77</v>
       </c>
       <c r="F592" t="n">
-        <v>0.31420296</v>
+        <v>314.20296</v>
       </c>
     </row>
     <row r="593">
@@ -12223,7 +12223,7 @@
         <v>140.385</v>
       </c>
       <c r="F593" t="n">
-        <v>0.3172701</v>
+        <v>317.2701</v>
       </c>
     </row>
     <row r="594">
@@ -12243,7 +12243,7 @@
         <v>141.27</v>
       </c>
       <c r="F594" t="n">
-        <v>0.31983528</v>
+        <v>319.83528</v>
       </c>
     </row>
     <row r="595">
@@ -12263,7 +12263,7 @@
         <v>141.93</v>
       </c>
       <c r="F595" t="n">
-        <v>0.3196263600000001</v>
+        <v>319.6263600000001</v>
       </c>
     </row>
     <row r="596">
@@ -12283,7 +12283,7 @@
         <v>142.515</v>
       </c>
       <c r="F596" t="n">
-        <v>0.32094378</v>
+        <v>320.94378</v>
       </c>
     </row>
     <row r="597">
@@ -12303,7 +12303,7 @@
         <v>142.995</v>
       </c>
       <c r="F597" t="n">
-        <v>0.3231687</v>
+        <v>323.1687</v>
       </c>
     </row>
     <row r="598">
@@ -12323,7 +12323,7 @@
         <v>143.385</v>
       </c>
       <c r="F598" t="n">
-        <v>0.3240501</v>
+        <v>324.0501</v>
       </c>
     </row>
     <row r="599">
@@ -12343,7 +12343,7 @@
         <v>143.895</v>
       </c>
       <c r="F599" t="n">
-        <v>0.32405154</v>
+        <v>324.05154</v>
       </c>
     </row>
     <row r="600">
@@ -12363,7 +12363,7 @@
         <v>144.195</v>
       </c>
       <c r="F600" t="n">
-        <v>0.3258807</v>
+        <v>325.8807</v>
       </c>
     </row>
     <row r="601">
@@ -12383,7 +12383,7 @@
         <v>144.54</v>
       </c>
       <c r="F601" t="n">
-        <v>0.32550408</v>
+        <v>325.50408</v>
       </c>
     </row>
     <row r="602">
@@ -12403,7 +12403,7 @@
         <v>144.99</v>
       </c>
       <c r="F602" t="n">
-        <v>0.3276774</v>
+        <v>327.6774</v>
       </c>
     </row>
     <row r="603">
@@ -12423,7 +12423,7 @@
         <v>145.59</v>
       </c>
       <c r="F603" t="n">
-        <v>0.32845104</v>
+        <v>328.45104</v>
       </c>
     </row>
     <row r="604">
@@ -12443,7 +12443,7 @@
         <v>146.13</v>
       </c>
       <c r="F604" t="n">
-        <v>0.32908476</v>
+        <v>329.08476</v>
       </c>
     </row>
     <row r="605">
@@ -12463,7 +12463,7 @@
         <v>146.85</v>
       </c>
       <c r="F605" t="n">
-        <v>0.331881</v>
+        <v>331.881</v>
       </c>
     </row>
     <row r="606">
@@ -12483,7 +12483,7 @@
         <v>147.585</v>
       </c>
       <c r="F606" t="n">
-        <v>0.3323614200000001</v>
+        <v>332.3614200000001</v>
       </c>
     </row>
     <row r="607">
@@ -12503,7 +12503,7 @@
         <v>148.23</v>
       </c>
       <c r="F607" t="n">
-        <v>0.33381396</v>
+        <v>333.81396</v>
       </c>
     </row>
     <row r="608">
@@ -12523,7 +12523,7 @@
         <v>148.845</v>
       </c>
       <c r="F608" t="n">
-        <v>0.33758046</v>
+        <v>337.58046</v>
       </c>
     </row>
     <row r="609">
@@ -12543,7 +12543,7 @@
         <v>149.295</v>
       </c>
       <c r="F609" t="n">
-        <v>0.33621234</v>
+        <v>336.21234</v>
       </c>
     </row>
     <row r="610">
@@ -12563,7 +12563,7 @@
         <v>149.97</v>
       </c>
       <c r="F610" t="n">
-        <v>0.3401319600000001</v>
+        <v>340.1319600000001</v>
       </c>
     </row>
     <row r="611">
@@ -12583,7 +12583,7 @@
         <v>150.15</v>
       </c>
       <c r="F611" t="n">
-        <v>0.3399396000000001</v>
+        <v>339.9396000000001</v>
       </c>
     </row>
     <row r="612">
@@ -12603,7 +12603,7 @@
         <v>151.665</v>
       </c>
       <c r="F612" t="n">
-        <v>0.34154958</v>
+        <v>341.54958</v>
       </c>
     </row>
     <row r="613">
@@ -12623,7 +12623,7 @@
         <v>137.655</v>
       </c>
       <c r="F613" t="n">
-        <v>0.3105496800000001</v>
+        <v>310.5496800000001</v>
       </c>
     </row>
     <row r="614">
@@ -12643,7 +12643,7 @@
         <v>75.69</v>
       </c>
       <c r="F614" t="n">
-        <v>0.16772904</v>
+        <v>167.72904</v>
       </c>
     </row>
     <row r="615">
@@ -12663,7 +12663,7 @@
         <v>86.235</v>
       </c>
       <c r="F615" t="n">
-        <v>0.19109676</v>
+        <v>191.09676</v>
       </c>
     </row>
     <row r="616">
@@ -12683,7 +12683,7 @@
         <v>99.14999999999999</v>
       </c>
       <c r="F616" t="n">
-        <v>0.2209062</v>
+        <v>220.9062</v>
       </c>
     </row>
     <row r="617">
@@ -12703,7 +12703,7 @@
         <v>131.88</v>
       </c>
       <c r="F617" t="n">
-        <v>0.29646624</v>
+        <v>296.46624</v>
       </c>
     </row>
     <row r="618">
@@ -12723,7 +12723,7 @@
         <v>152.7</v>
       </c>
       <c r="F618" t="n">
-        <v>0.345102</v>
+        <v>345.102</v>
       </c>
     </row>
     <row r="619">
@@ -12743,7 +12743,7 @@
         <v>153.225</v>
       </c>
       <c r="F619" t="n">
-        <v>0.3469014</v>
+        <v>346.9014</v>
       </c>
     </row>
     <row r="620">
@@ -12763,7 +12763,7 @@
         <v>102.795</v>
       </c>
       <c r="F620" t="n">
-        <v>0.22902726</v>
+        <v>229.02726</v>
       </c>
     </row>
     <row r="621">
@@ -12783,7 +12783,7 @@
         <v>82.70999999999999</v>
       </c>
       <c r="F621" t="n">
-        <v>0.18328536</v>
+        <v>183.28536</v>
       </c>
     </row>
     <row r="622">
@@ -12803,7 +12803,7 @@
         <v>135.375</v>
       </c>
       <c r="F622" t="n">
-        <v>0.3037815</v>
+        <v>303.7815</v>
       </c>
     </row>
     <row r="623">
@@ -12823,7 +12823,7 @@
         <v>108.3</v>
       </c>
       <c r="F623" t="n">
-        <v>0.2417256</v>
+        <v>241.7256</v>
       </c>
     </row>
     <row r="624">
@@ -12843,7 +12843,7 @@
         <v>107.145</v>
       </c>
       <c r="F624" t="n">
-        <v>0.2400048</v>
+        <v>240.0048</v>
       </c>
     </row>
     <row r="625">
@@ -12863,7 +12863,7 @@
         <v>53.625</v>
       </c>
       <c r="F625" t="n">
-        <v>0.118404</v>
+        <v>118.404</v>
       </c>
     </row>
     <row r="626">
@@ -12883,7 +12883,7 @@
         <v>40.635</v>
       </c>
       <c r="F626" t="n">
-        <v>0.08923446</v>
+        <v>89.23446</v>
       </c>
     </row>
     <row r="627">
@@ -12903,7 +12903,7 @@
         <v>51.225</v>
       </c>
       <c r="F627" t="n">
-        <v>0.112695</v>
+        <v>112.695</v>
       </c>
     </row>
     <row r="628">
@@ -12923,7 +12923,7 @@
         <v>49.845</v>
       </c>
       <c r="F628" t="n">
-        <v>0.10945962</v>
+        <v>109.45962</v>
       </c>
     </row>
     <row r="629">
@@ -12943,7 +12943,7 @@
         <v>69.855</v>
       </c>
       <c r="F629" t="n">
-        <v>0.15340158</v>
+        <v>153.40158</v>
       </c>
     </row>
     <row r="630">
@@ -12963,7 +12963,7 @@
         <v>115.335</v>
       </c>
       <c r="F630" t="n">
-        <v>0.25788906</v>
+        <v>257.88906</v>
       </c>
     </row>
     <row r="631">
@@ -12983,7 +12983,7 @@
         <v>159.78</v>
       </c>
       <c r="F631" t="n">
-        <v>0.3617419200000001</v>
+        <v>361.7419200000001</v>
       </c>
     </row>
     <row r="632">
@@ -13003,7 +13003,7 @@
         <v>158.1</v>
       </c>
       <c r="F632" t="n">
-        <v>0.3579384</v>
+        <v>357.9384</v>
       </c>
     </row>
     <row r="633">
@@ -13023,7 +13023,7 @@
         <v>151.665</v>
       </c>
       <c r="F633" t="n">
-        <v>0.3427629</v>
+        <v>342.7629</v>
       </c>
     </row>
     <row r="634">
@@ -13043,7 +13043,7 @@
         <v>158.895</v>
       </c>
       <c r="F634" t="n">
-        <v>0.35973828</v>
+        <v>359.73828</v>
       </c>
     </row>
     <row r="635">
@@ -13063,7 +13063,7 @@
         <v>159.57</v>
       </c>
       <c r="F635" t="n">
-        <v>0.36126648</v>
+        <v>361.26648</v>
       </c>
     </row>
     <row r="636">
@@ -13083,7 +13083,7 @@
         <v>159.6</v>
       </c>
       <c r="F636" t="n">
-        <v>0.3619728</v>
+        <v>361.9728</v>
       </c>
     </row>
     <row r="637">
@@ -13103,7 +13103,7 @@
         <v>159.165</v>
       </c>
       <c r="F637" t="n">
-        <v>0.36225954</v>
+        <v>362.25954</v>
       </c>
     </row>
     <row r="638">
@@ -13123,7 +13123,7 @@
         <v>159.135</v>
       </c>
       <c r="F638" t="n">
-        <v>0.36091818</v>
+        <v>360.9181799999999</v>
       </c>
     </row>
     <row r="639">
@@ -13143,7 +13143,7 @@
         <v>159.405</v>
       </c>
       <c r="F639" t="n">
-        <v>0.3608929200000001</v>
+        <v>360.8929200000001</v>
       </c>
     </row>
     <row r="640">
@@ -13163,7 +13163,7 @@
         <v>159.795</v>
       </c>
       <c r="F640" t="n">
-        <v>0.36241506</v>
+        <v>362.41506</v>
       </c>
     </row>
     <row r="641">
@@ -13183,7 +13183,7 @@
         <v>160.125</v>
       </c>
       <c r="F641" t="n">
-        <v>0.362523</v>
+        <v>362.523</v>
       </c>
     </row>
     <row r="642">
@@ -13203,7 +13203,7 @@
         <v>160.35</v>
       </c>
       <c r="F642" t="n">
-        <v>0.3630324</v>
+        <v>363.0324</v>
       </c>
     </row>
     <row r="643">
@@ -13223,7 +13223,7 @@
         <v>160.77</v>
       </c>
       <c r="F643" t="n">
-        <v>0.36462636</v>
+        <v>364.62636</v>
       </c>
     </row>
     <row r="644">
@@ -13243,7 +13243,7 @@
         <v>160.875</v>
       </c>
       <c r="F644" t="n">
-        <v>0.3642210000000001</v>
+        <v>364.2210000000001</v>
       </c>
     </row>
     <row r="645">
@@ -13263,7 +13263,7 @@
         <v>161.07</v>
       </c>
       <c r="F645" t="n">
-        <v>0.36530676</v>
+        <v>365.30676</v>
       </c>
     </row>
     <row r="646">
@@ -13283,7 +13283,7 @@
         <v>161.295</v>
       </c>
       <c r="F646" t="n">
-        <v>0.36581706</v>
+        <v>365.81706</v>
       </c>
     </row>
     <row r="647">
@@ -13303,7 +13303,7 @@
         <v>161.22</v>
       </c>
       <c r="F647" t="n">
-        <v>0.36564696</v>
+        <v>365.64696</v>
       </c>
     </row>
     <row r="648">
@@ -13323,7 +13323,7 @@
         <v>162.015</v>
       </c>
       <c r="F648" t="n">
-        <v>0.36809808</v>
+        <v>368.09808</v>
       </c>
     </row>
     <row r="649">
@@ -13343,7 +13343,7 @@
         <v>161.67</v>
       </c>
       <c r="F649" t="n">
-        <v>0.36602088</v>
+        <v>366.02088</v>
       </c>
     </row>
     <row r="650">
@@ -13363,7 +13363,7 @@
         <v>160.365</v>
       </c>
       <c r="F650" t="n">
-        <v>0.36306636</v>
+        <v>363.06636</v>
       </c>
     </row>
     <row r="651">
@@ -13383,7 +13383,7 @@
         <v>161.79</v>
       </c>
       <c r="F651" t="n">
-        <v>0.36629256</v>
+        <v>366.29256</v>
       </c>
     </row>
     <row r="652">
@@ -13403,7 +13403,7 @@
         <v>159.69</v>
       </c>
       <c r="F652" t="n">
-        <v>0.36281568</v>
+        <v>362.81568</v>
       </c>
     </row>
     <row r="653">
@@ -13423,7 +13423,7 @@
         <v>163.26</v>
       </c>
       <c r="F653" t="n">
-        <v>0.3696206400000001</v>
+        <v>369.6206400000001</v>
       </c>
     </row>
     <row r="654">
@@ -13443,7 +13443,7 @@
         <v>163.215</v>
       </c>
       <c r="F654" t="n">
-        <v>0.3708244800000001</v>
+        <v>370.8244800000001</v>
       </c>
     </row>
     <row r="655">
@@ -13463,7 +13463,7 @@
         <v>162.945</v>
       </c>
       <c r="F655" t="n">
-        <v>0.36890748</v>
+        <v>368.90748</v>
       </c>
     </row>
     <row r="656">
@@ -13483,7 +13483,7 @@
         <v>162.345</v>
       </c>
       <c r="F656" t="n">
-        <v>0.36884784</v>
+        <v>368.84784</v>
       </c>
     </row>
     <row r="657">
@@ -13503,7 +13503,7 @@
         <v>164.43</v>
       </c>
       <c r="F657" t="n">
-        <v>0.37292724</v>
+        <v>372.92724</v>
       </c>
     </row>
     <row r="658">
@@ -13523,7 +13523,7 @@
         <v>164.745</v>
       </c>
       <c r="F658" t="n">
-        <v>0.3729826800000001</v>
+        <v>372.9826800000001</v>
       </c>
     </row>
     <row r="659">
@@ -13543,7 +13543,7 @@
         <v>164.835</v>
       </c>
       <c r="F659" t="n">
-        <v>0.37450512</v>
+        <v>374.50512</v>
       </c>
     </row>
     <row r="660">
@@ -13563,7 +13563,7 @@
         <v>165.405</v>
       </c>
       <c r="F660" t="n">
-        <v>0.37580016</v>
+        <v>375.80016</v>
       </c>
     </row>
     <row r="661">
@@ -13583,7 +13583,7 @@
         <v>165.435</v>
       </c>
       <c r="F661" t="n">
-        <v>0.37586832</v>
+        <v>375.86832</v>
       </c>
     </row>
     <row r="662">
@@ -13603,7 +13603,7 @@
         <v>165.3</v>
       </c>
       <c r="F662" t="n">
-        <v>0.3755616</v>
+        <v>375.5616</v>
       </c>
     </row>
     <row r="663">
@@ -13623,7 +13623,7 @@
         <v>166.425</v>
       </c>
       <c r="F663" t="n">
-        <v>0.3781176</v>
+        <v>378.1176</v>
       </c>
     </row>
     <row r="664">
@@ -13643,7 +13643,7 @@
         <v>167.25</v>
       </c>
       <c r="F664" t="n">
-        <v>0.379323</v>
+        <v>379.323</v>
       </c>
     </row>
     <row r="665">
@@ -13663,7 +13663,7 @@
         <v>167.82</v>
       </c>
       <c r="F665" t="n">
-        <v>0.38061576</v>
+        <v>380.61576</v>
       </c>
     </row>
     <row r="666">
@@ -13683,7 +13683,7 @@
         <v>167.97</v>
       </c>
       <c r="F666" t="n">
-        <v>0.38095596</v>
+        <v>380.95596</v>
       </c>
     </row>
     <row r="667">
@@ -13703,7 +13703,7 @@
         <v>167.925</v>
       </c>
       <c r="F667" t="n">
-        <v>0.3808539</v>
+        <v>380.8539</v>
       </c>
     </row>
     <row r="668">
@@ -13723,7 +13723,7 @@
         <v>167.94</v>
       </c>
       <c r="F668" t="n">
-        <v>0.38088792</v>
+        <v>380.88792</v>
       </c>
     </row>
     <row r="669">
@@ -13743,7 +13743,7 @@
         <v>168.465</v>
       </c>
       <c r="F669" t="n">
-        <v>0.3827524800000001</v>
+        <v>382.7524800000001</v>
       </c>
     </row>
     <row r="670">
@@ -13763,7 +13763,7 @@
         <v>169.725</v>
       </c>
       <c r="F670" t="n">
-        <v>0.3862941</v>
+        <v>386.2941</v>
       </c>
     </row>
     <row r="671">
@@ -13783,7 +13783,7 @@
         <v>169.485</v>
       </c>
       <c r="F671" t="n">
-        <v>0.38506992</v>
+        <v>385.06992</v>
       </c>
     </row>
     <row r="672">
@@ -13803,7 +13803,7 @@
         <v>170.28</v>
       </c>
       <c r="F672" t="n">
-        <v>0.38687616</v>
+        <v>386.87616</v>
       </c>
     </row>
     <row r="673">
@@ -13823,7 +13823,7 @@
         <v>170.43</v>
       </c>
       <c r="F673" t="n">
-        <v>0.3872169600000001</v>
+        <v>387.2169600000001</v>
       </c>
     </row>
     <row r="674">
@@ -13843,7 +13843,7 @@
         <v>170.565</v>
       </c>
       <c r="F674" t="n">
-        <v>0.38752368</v>
+        <v>387.52368</v>
       </c>
     </row>
     <row r="675">
@@ -13863,7 +13863,7 @@
         <v>171.225</v>
       </c>
       <c r="F675" t="n">
-        <v>0.3897081</v>
+        <v>389.7081</v>
       </c>
     </row>
     <row r="676">
@@ -13883,7 +13883,7 @@
         <v>171.975</v>
       </c>
       <c r="F676" t="n">
-        <v>0.3914151000000001</v>
+        <v>391.4151000000001</v>
       </c>
     </row>
     <row r="677">
@@ -13903,7 +13903,7 @@
         <v>171.285</v>
       </c>
       <c r="F677" t="n">
-        <v>0.3884743800000001</v>
+        <v>388.4743800000001</v>
       </c>
     </row>
     <row r="678">
@@ -13923,7 +13923,7 @@
         <v>170.835</v>
       </c>
       <c r="F678" t="n">
-        <v>0.38813712</v>
+        <v>388.13712</v>
       </c>
     </row>
     <row r="679">
@@ -13943,7 +13943,7 @@
         <v>170.955</v>
       </c>
       <c r="F679" t="n">
-        <v>0.38840976</v>
+        <v>388.40976</v>
       </c>
     </row>
     <row r="680">
@@ -13963,7 +13963,7 @@
         <v>171.735</v>
       </c>
       <c r="F680" t="n">
-        <v>0.3915558</v>
+        <v>391.5558</v>
       </c>
     </row>
     <row r="681">
@@ -13983,7 +13983,7 @@
         <v>171.54</v>
       </c>
       <c r="F681" t="n">
-        <v>0.3897388800000001</v>
+        <v>389.7388800000001</v>
       </c>
     </row>
     <row r="682">
@@ -14003,7 +14003,7 @@
         <v>169.14</v>
       </c>
       <c r="F682" t="n">
-        <v>0.38360952</v>
+        <v>383.60952</v>
       </c>
     </row>
     <row r="683">
@@ -14023,7 +14023,7 @@
         <v>168.195</v>
       </c>
       <c r="F683" t="n">
-        <v>0.38213904</v>
+        <v>382.13904</v>
       </c>
     </row>
     <row r="684">
@@ -14043,7 +14043,7 @@
         <v>168.285</v>
       </c>
       <c r="F684" t="n">
-        <v>0.3830166600000001</v>
+        <v>383.0166600000001</v>
       </c>
     </row>
     <row r="685">
@@ -14063,7 +14063,7 @@
         <v>167.145</v>
       </c>
       <c r="F685" t="n">
-        <v>0.37975344</v>
+        <v>379.75344</v>
       </c>
     </row>
     <row r="686">
@@ -14083,7 +14083,7 @@
         <v>166.59</v>
       </c>
       <c r="F686" t="n">
-        <v>0.3784924800000001</v>
+        <v>378.4924800000001</v>
       </c>
     </row>
     <row r="687">
@@ -14103,7 +14103,7 @@
         <v>166.92</v>
       </c>
       <c r="F687" t="n">
-        <v>0.37990992</v>
+        <v>379.90992</v>
       </c>
     </row>
     <row r="688">
@@ -14123,7 +14123,7 @@
         <v>167.25</v>
       </c>
       <c r="F688" t="n">
-        <v>0.379323</v>
+        <v>379.323</v>
       </c>
     </row>
     <row r="689">
@@ -14143,7 +14143,7 @@
         <v>158.91</v>
       </c>
       <c r="F689" t="n">
-        <v>0.36040788</v>
+        <v>360.40788</v>
       </c>
     </row>
     <row r="690">
@@ -14163,7 +14163,7 @@
         <v>165.915</v>
       </c>
       <c r="F690" t="n">
-        <v>0.37695888</v>
+        <v>376.95888</v>
       </c>
     </row>
     <row r="691">
@@ -14183,7 +14183,7 @@
         <v>168.84</v>
       </c>
       <c r="F691" t="n">
-        <v>0.38360448</v>
+        <v>383.60448</v>
       </c>
     </row>
     <row r="692">
@@ -14203,7 +14203,7 @@
         <v>166.83</v>
       </c>
       <c r="F692" t="n">
-        <v>0.37903776</v>
+        <v>379.03776</v>
       </c>
     </row>
     <row r="693">
@@ -14223,7 +14223,7 @@
         <v>165.6</v>
       </c>
       <c r="F693" t="n">
-        <v>0.3762432</v>
+        <v>376.2432</v>
       </c>
     </row>
     <row r="694">
@@ -14243,7 +14243,7 @@
         <v>163.635</v>
       </c>
       <c r="F694" t="n">
-        <v>0.37112418</v>
+        <v>371.12418</v>
       </c>
     </row>
     <row r="695">
@@ -14263,7 +14263,7 @@
         <v>168.18</v>
       </c>
       <c r="F695" t="n">
-        <v>0.38210496</v>
+        <v>382.10496</v>
       </c>
     </row>
     <row r="696">
@@ -14283,7 +14283,7 @@
         <v>168.135</v>
       </c>
       <c r="F696" t="n">
-        <v>0.38200272</v>
+        <v>382.00272</v>
       </c>
     </row>
     <row r="697">
@@ -14303,7 +14303,7 @@
         <v>165.615</v>
       </c>
       <c r="F697" t="n">
-        <v>0.37627728</v>
+        <v>376.27728</v>
       </c>
     </row>
     <row r="698">
@@ -14323,7 +14323,7 @@
         <v>162.57</v>
       </c>
       <c r="F698" t="n">
-        <v>0.36870876</v>
+        <v>368.70876</v>
       </c>
     </row>
     <row r="699">
@@ -14343,7 +14343,7 @@
         <v>162.78</v>
       </c>
       <c r="F699" t="n">
-        <v>0.36853392</v>
+        <v>368.53392</v>
       </c>
     </row>
     <row r="700">
@@ -14363,7 +14363,7 @@
         <v>168.54</v>
       </c>
       <c r="F700" t="n">
-        <v>0.38224872</v>
+        <v>382.24872</v>
       </c>
     </row>
     <row r="701">
@@ -14383,7 +14383,7 @@
         <v>170.7</v>
       </c>
       <c r="F701" t="n">
-        <v>0.3878304</v>
+        <v>387.8304</v>
       </c>
     </row>
     <row r="702">
@@ -14403,7 +14403,7 @@
         <v>170.52</v>
       </c>
       <c r="F702" t="n">
-        <v>0.38742144</v>
+        <v>387.42144</v>
       </c>
     </row>
     <row r="703">
@@ -14423,7 +14423,7 @@
         <v>168.87</v>
       </c>
       <c r="F703" t="n">
-        <v>0.3829971600000001</v>
+        <v>382.9971600000001</v>
       </c>
     </row>
     <row r="704">
@@ -14443,7 +14443,7 @@
         <v>167.76</v>
       </c>
       <c r="F704" t="n">
-        <v>0.38047968</v>
+        <v>380.47968</v>
       </c>
     </row>
     <row r="705">
@@ -14463,7 +14463,7 @@
         <v>167.595</v>
       </c>
       <c r="F705" t="n">
-        <v>0.3814462200000001</v>
+        <v>381.4462200000001</v>
       </c>
     </row>
     <row r="706">
@@ -14483,7 +14483,7 @@
         <v>167.055</v>
       </c>
       <c r="F706" t="n">
-        <v>0.3795489600000001</v>
+        <v>379.5489600000001</v>
       </c>
     </row>
     <row r="707">
@@ -14503,7 +14503,7 @@
         <v>167.865</v>
       </c>
       <c r="F707" t="n">
-        <v>0.38138928</v>
+        <v>381.38928</v>
       </c>
     </row>
     <row r="708">
@@ -14523,7 +14523,7 @@
         <v>168.945</v>
       </c>
       <c r="F708" t="n">
-        <v>0.38384304</v>
+        <v>383.84304</v>
       </c>
     </row>
     <row r="709">
@@ -14543,7 +14543,7 @@
         <v>170.43</v>
       </c>
       <c r="F709" t="n">
-        <v>0.3872169600000001</v>
+        <v>387.2169600000001</v>
       </c>
     </row>
     <row r="710">
@@ -14563,7 +14563,7 @@
         <v>170.175</v>
       </c>
       <c r="F710" t="n">
-        <v>0.3866376</v>
+        <v>386.6376</v>
       </c>
     </row>
     <row r="711">
@@ -14583,7 +14583,7 @@
         <v>169.875</v>
       </c>
       <c r="F711" t="n">
-        <v>0.385956</v>
+        <v>385.956</v>
       </c>
     </row>
     <row r="712">
@@ -14603,7 +14603,7 @@
         <v>166.83</v>
       </c>
       <c r="F712" t="n">
-        <v>0.37770312</v>
+        <v>377.70312</v>
       </c>
     </row>
     <row r="713">
@@ -14623,7 +14623,7 @@
         <v>166.125</v>
       </c>
       <c r="F713" t="n">
-        <v>0.377436</v>
+        <v>377.436</v>
       </c>
     </row>
     <row r="714">
@@ -14643,7 +14643,7 @@
         <v>166.59</v>
       </c>
       <c r="F714" t="n">
-        <v>0.37782612</v>
+        <v>377.82612</v>
       </c>
     </row>
     <row r="715">
@@ -14663,7 +14663,7 @@
         <v>166.995</v>
       </c>
       <c r="F715" t="n">
-        <v>0.3794126400000001</v>
+        <v>379.4126400000001</v>
       </c>
     </row>
     <row r="716">
@@ -14683,7 +14683,7 @@
         <v>167.955</v>
       </c>
       <c r="F716" t="n">
-        <v>0.38092194</v>
+        <v>380.92194</v>
       </c>
     </row>
     <row r="717">
@@ -14703,7 +14703,7 @@
         <v>168.885</v>
       </c>
       <c r="F717" t="n">
-        <v>0.38438226</v>
+        <v>384.38226</v>
       </c>
     </row>
     <row r="718">
@@ -14723,7 +14723,7 @@
         <v>170.415</v>
       </c>
       <c r="F718" t="n">
-        <v>0.38718288</v>
+        <v>387.18288</v>
       </c>
     </row>
     <row r="719">
@@ -14743,7 +14743,7 @@
         <v>170.925</v>
       </c>
       <c r="F719" t="n">
-        <v>0.3890253</v>
+        <v>389.0253</v>
       </c>
     </row>
     <row r="720">
@@ -14763,7 +14763,7 @@
         <v>172.08</v>
       </c>
       <c r="F720" t="n">
-        <v>0.39096576</v>
+        <v>390.96576</v>
       </c>
     </row>
     <row r="721">
@@ -14783,7 +14783,7 @@
         <v>172.185</v>
       </c>
       <c r="F721" t="n">
-        <v>0.3918930600000001</v>
+        <v>391.8930600000001</v>
       </c>
     </row>
     <row r="722">
@@ -14803,7 +14803,7 @@
         <v>171.93</v>
       </c>
       <c r="F722" t="n">
-        <v>0.39062496</v>
+        <v>390.62496</v>
       </c>
     </row>
     <row r="723">
@@ -14823,7 +14823,7 @@
         <v>171.6</v>
       </c>
       <c r="F723" t="n">
-        <v>0.3898752</v>
+        <v>389.8751999999999</v>
       </c>
     </row>
     <row r="724">
@@ -14843,7 +14843,7 @@
         <v>171.63</v>
       </c>
       <c r="F724" t="n">
-        <v>0.39062988</v>
+        <v>390.62988</v>
       </c>
     </row>
     <row r="725">
@@ -14863,7 +14863,7 @@
         <v>171.33</v>
       </c>
       <c r="F725" t="n">
-        <v>0.38994708</v>
+        <v>389.94708</v>
       </c>
     </row>
     <row r="726">
@@ -14883,7 +14883,7 @@
         <v>171.195</v>
       </c>
       <c r="F726" t="n">
-        <v>0.38963982</v>
+        <v>389.63982</v>
       </c>
     </row>
     <row r="727">
@@ -14903,7 +14903,7 @@
         <v>170.58</v>
       </c>
       <c r="F727" t="n">
-        <v>0.3889224</v>
+        <v>388.9224</v>
       </c>
     </row>
     <row r="728">
@@ -14923,7 +14923,7 @@
         <v>170.745</v>
       </c>
       <c r="F728" t="n">
-        <v>0.3886156200000001</v>
+        <v>388.6156200000001</v>
       </c>
     </row>
     <row r="729">
@@ -14943,7 +14943,7 @@
         <v>170.34</v>
       </c>
       <c r="F729" t="n">
-        <v>0.38701248</v>
+        <v>387.01248</v>
       </c>
     </row>
     <row r="730">
@@ -14963,7 +14963,7 @@
         <v>170.46</v>
       </c>
       <c r="F730" t="n">
-        <v>0.38796696</v>
+        <v>387.96696</v>
       </c>
     </row>
     <row r="731">
@@ -14983,7 +14983,7 @@
         <v>170.565</v>
       </c>
       <c r="F731" t="n">
-        <v>0.38752368</v>
+        <v>387.52368</v>
       </c>
     </row>
     <row r="732">
@@ -15003,7 +15003,7 @@
         <v>170.37</v>
       </c>
       <c r="F732" t="n">
-        <v>0.3870806400000001</v>
+        <v>387.0806400000001</v>
       </c>
     </row>
     <row r="733">
@@ -15023,7 +15023,7 @@
         <v>170.595</v>
       </c>
       <c r="F733" t="n">
-        <v>0.38827422</v>
+        <v>388.27422</v>
       </c>
     </row>
     <row r="734">
@@ -15043,7 +15043,7 @@
         <v>170.385</v>
       </c>
       <c r="F734" t="n">
-        <v>0.38711472</v>
+        <v>387.11472</v>
       </c>
     </row>
     <row r="735">
@@ -15063,7 +15063,7 @@
         <v>169.62</v>
       </c>
       <c r="F735" t="n">
-        <v>0.38537664</v>
+        <v>385.37664</v>
       </c>
     </row>
     <row r="736">
@@ -15083,7 +15083,7 @@
         <v>169.245</v>
       </c>
       <c r="F736" t="n">
-        <v>0.38452464</v>
+        <v>384.52464</v>
       </c>
     </row>
     <row r="737">
@@ -15103,7 +15103,7 @@
         <v>169.47</v>
       </c>
       <c r="F737" t="n">
-        <v>0.3850358400000001</v>
+        <v>385.0358400000001</v>
       </c>
     </row>
     <row r="738">
@@ -15123,7 +15123,7 @@
         <v>169.5</v>
       </c>
       <c r="F738" t="n">
-        <v>0.3851040000000001</v>
+        <v>385.1040000000001</v>
       </c>
     </row>
     <row r="739">
@@ -15143,7 +15143,7 @@
         <v>169.755</v>
       </c>
       <c r="F739" t="n">
-        <v>0.38500434</v>
+        <v>385.00434</v>
       </c>
     </row>
     <row r="740">
@@ -15163,7 +15163,7 @@
         <v>168.96</v>
       </c>
       <c r="F740" t="n">
-        <v>0.38455296</v>
+        <v>384.55296</v>
       </c>
     </row>
     <row r="741">
@@ -15183,7 +15183,7 @@
         <v>167.955</v>
       </c>
       <c r="F741" t="n">
-        <v>0.38159376</v>
+        <v>381.59376</v>
       </c>
     </row>
     <row r="742">
@@ -15203,7 +15203,7 @@
         <v>167.4</v>
       </c>
       <c r="F742" t="n">
-        <v>0.3803328000000001</v>
+        <v>380.3328000000001</v>
       </c>
     </row>
     <row r="743">
@@ -15223,7 +15223,7 @@
         <v>167.265</v>
       </c>
       <c r="F743" t="n">
-        <v>0.38002608</v>
+        <v>380.02608</v>
       </c>
     </row>
     <row r="744">
@@ -15243,7 +15243,7 @@
         <v>166.185</v>
       </c>
       <c r="F744" t="n">
-        <v>0.3775723200000001</v>
+        <v>377.57232</v>
       </c>
     </row>
     <row r="745">
@@ -15263,7 +15263,7 @@
         <v>165.3</v>
       </c>
       <c r="F745" t="n">
-        <v>0.3755616</v>
+        <v>375.5616</v>
       </c>
     </row>
     <row r="746">
@@ -15283,7 +15283,7 @@
         <v>165.105</v>
       </c>
       <c r="F746" t="n">
-        <v>0.37511856</v>
+        <v>375.11856</v>
       </c>
     </row>
     <row r="747">
@@ -15303,7 +15303,7 @@
         <v>165.81</v>
       </c>
       <c r="F747" t="n">
-        <v>0.3767203200000001</v>
+        <v>376.7203200000001</v>
       </c>
     </row>
     <row r="748">
@@ -15323,7 +15323,7 @@
         <v>166.005</v>
       </c>
       <c r="F748" t="n">
-        <v>0.37649934</v>
+        <v>376.49934</v>
       </c>
     </row>
     <row r="749">
@@ -15343,7 +15343,7 @@
         <v>166.575</v>
       </c>
       <c r="F749" t="n">
-        <v>0.3784584</v>
+        <v>378.4584</v>
       </c>
     </row>
     <row r="750">
@@ -15363,7 +15363,7 @@
         <v>167.07</v>
       </c>
       <c r="F750" t="n">
-        <v>0.37958304</v>
+        <v>379.58304</v>
       </c>
     </row>
     <row r="751">
@@ -15383,7 +15383,7 @@
         <v>167.295</v>
       </c>
       <c r="F751" t="n">
-        <v>0.38009424</v>
+        <v>380.09424</v>
       </c>
     </row>
     <row r="752">
@@ -15403,7 +15403,7 @@
         <v>167.625</v>
       </c>
       <c r="F752" t="n">
-        <v>0.3801735000000001</v>
+        <v>380.1735000000001</v>
       </c>
     </row>
     <row r="753">
@@ -15423,7 +15423,7 @@
         <v>167.115</v>
       </c>
       <c r="F753" t="n">
-        <v>0.37901682</v>
+        <v>379.01682</v>
       </c>
     </row>
     <row r="754">
@@ -15443,7 +15443,7 @@
         <v>167.7</v>
       </c>
       <c r="F754" t="n">
-        <v>0.3803436000000001</v>
+        <v>380.3436000000001</v>
       </c>
     </row>
     <row r="755">
@@ -15463,7 +15463,7 @@
         <v>167.775</v>
       </c>
       <c r="F755" t="n">
-        <v>0.3811848</v>
+        <v>381.1848</v>
       </c>
     </row>
     <row r="756">
@@ -15483,7 +15483,7 @@
         <v>167.58</v>
       </c>
       <c r="F756" t="n">
-        <v>0.38074176</v>
+        <v>380.74176</v>
       </c>
     </row>
     <row r="757">
@@ -15503,7 +15503,7 @@
         <v>168.3</v>
       </c>
       <c r="F757" t="n">
-        <v>0.3823776</v>
+        <v>382.3776</v>
       </c>
     </row>
     <row r="758">
@@ -15523,7 +15523,7 @@
         <v>168.705</v>
       </c>
       <c r="F758" t="n">
-        <v>0.38329776</v>
+        <v>383.29776</v>
       </c>
     </row>
     <row r="759">
@@ -15543,7 +15543,7 @@
         <v>168.63</v>
       </c>
       <c r="F759" t="n">
-        <v>0.38312736</v>
+        <v>383.12736</v>
       </c>
     </row>
     <row r="760">
@@ -15563,7 +15563,7 @@
         <v>168.18</v>
       </c>
       <c r="F760" t="n">
-        <v>0.38277768</v>
+        <v>382.77768</v>
       </c>
     </row>
     <row r="761">
@@ -15583,7 +15583,7 @@
         <v>166.95</v>
       </c>
       <c r="F761" t="n">
-        <v>0.3786426</v>
+        <v>378.6426</v>
       </c>
     </row>
     <row r="762">
@@ -15603,7 +15603,7 @@
         <v>165.72</v>
       </c>
       <c r="F762" t="n">
-        <v>0.3758529600000001</v>
+        <v>375.8529600000001</v>
       </c>
     </row>
     <row r="763">
@@ -15623,7 +15623,7 @@
         <v>165.33</v>
       </c>
       <c r="F763" t="n">
-        <v>0.37562976</v>
+        <v>375.62976</v>
       </c>
     </row>
     <row r="764">
@@ -15643,7 +15643,7 @@
         <v>165.105</v>
       </c>
       <c r="F764" t="n">
-        <v>0.37511856</v>
+        <v>375.11856</v>
       </c>
     </row>
     <row r="765">
@@ -15663,7 +15663,7 @@
         <v>165.555</v>
       </c>
       <c r="F765" t="n">
-        <v>0.3754787400000001</v>
+        <v>375.4787400000001</v>
       </c>
     </row>
     <row r="766">
@@ -15683,7 +15683,7 @@
         <v>166.485</v>
       </c>
       <c r="F766" t="n">
-        <v>0.37758798</v>
+        <v>377.58798</v>
       </c>
     </row>
     <row r="767">
@@ -15703,7 +15703,7 @@
         <v>166.11</v>
       </c>
       <c r="F767" t="n">
-        <v>0.37740192</v>
+        <v>377.40192</v>
       </c>
     </row>
     <row r="768">
@@ -15723,7 +15723,7 @@
         <v>165.435</v>
       </c>
       <c r="F768" t="n">
-        <v>0.37520658</v>
+        <v>375.20658</v>
       </c>
     </row>
     <row r="769">
@@ -15743,7 +15743,7 @@
         <v>165.375</v>
       </c>
       <c r="F769" t="n">
-        <v>0.3750705</v>
+        <v>375.0705</v>
       </c>
     </row>
     <row r="770">
@@ -15763,7 +15763,7 @@
         <v>165.12</v>
       </c>
       <c r="F770" t="n">
-        <v>0.3744921600000001</v>
+        <v>374.4921600000001</v>
       </c>
     </row>
     <row r="771">
@@ -15783,7 +15783,7 @@
         <v>165.315</v>
       </c>
       <c r="F771" t="n">
-        <v>0.37493442</v>
+        <v>374.93442</v>
       </c>
     </row>
     <row r="772">
@@ -15803,7 +15803,7 @@
         <v>165.57</v>
       </c>
       <c r="F772" t="n">
-        <v>0.37617504</v>
+        <v>376.17504</v>
       </c>
     </row>
     <row r="773">
@@ -15823,7 +15823,7 @@
         <v>165.33</v>
       </c>
       <c r="F773" t="n">
-        <v>0.37496844</v>
+        <v>374.96844</v>
       </c>
     </row>
     <row r="774">
@@ -15843,7 +15843,7 @@
         <v>165.42</v>
       </c>
       <c r="F774" t="n">
-        <v>0.37583424</v>
+        <v>375.83424</v>
       </c>
     </row>
     <row r="775">
@@ -15863,7 +15863,7 @@
         <v>165.255</v>
       </c>
       <c r="F775" t="n">
-        <v>0.37545936</v>
+        <v>375.45936</v>
       </c>
     </row>
     <row r="776">
@@ -15883,7 +15883,7 @@
         <v>164.595</v>
       </c>
       <c r="F776" t="n">
-        <v>0.3726430800000001</v>
+        <v>372.6430800000001</v>
       </c>
     </row>
     <row r="777">
@@ -15903,7 +15903,7 @@
         <v>164.55</v>
       </c>
       <c r="F777" t="n">
-        <v>0.3731994</v>
+        <v>373.1994</v>
       </c>
     </row>
     <row r="778">
@@ -15923,7 +15923,7 @@
         <v>164.1</v>
       </c>
       <c r="F778" t="n">
-        <v>0.3721788</v>
+        <v>372.1788</v>
       </c>
     </row>
     <row r="779">
@@ -15943,7 +15943,7 @@
         <v>163.86</v>
       </c>
       <c r="F779" t="n">
-        <v>0.37097904</v>
+        <v>370.97904</v>
       </c>
     </row>
     <row r="780">
@@ -15963,7 +15963,7 @@
         <v>163.41</v>
       </c>
       <c r="F780" t="n">
-        <v>0.3699602400000001</v>
+        <v>369.9602400000001</v>
       </c>
     </row>
     <row r="781">
@@ -15983,7 +15983,7 @@
         <v>163.14</v>
       </c>
       <c r="F781" t="n">
-        <v>0.37000152</v>
+        <v>370.00152</v>
       </c>
     </row>
     <row r="782">
@@ -16003,7 +16003,7 @@
         <v>163.155</v>
       </c>
       <c r="F782" t="n">
-        <v>0.37068816</v>
+        <v>370.68816</v>
       </c>
     </row>
     <row r="783">
@@ -16023,7 +16023,7 @@
         <v>162.66</v>
       </c>
       <c r="F783" t="n">
-        <v>0.3689128800000001</v>
+        <v>368.9128800000001</v>
       </c>
     </row>
     <row r="784">
@@ -16043,7 +16043,7 @@
         <v>162.705</v>
       </c>
       <c r="F784" t="n">
-        <v>0.36901494</v>
+        <v>369.01494</v>
       </c>
     </row>
     <row r="785">
@@ -16063,7 +16063,7 @@
         <v>162.69</v>
       </c>
       <c r="F785" t="n">
-        <v>0.36833016</v>
+        <v>368.33016</v>
       </c>
     </row>
     <row r="786">
@@ -16083,7 +16083,7 @@
         <v>162.45</v>
       </c>
       <c r="F786" t="n">
-        <v>0.3684366</v>
+        <v>368.4366</v>
       </c>
     </row>
     <row r="787">
@@ -16103,7 +16103,7 @@
         <v>161.64</v>
       </c>
       <c r="F787" t="n">
-        <v>0.36659952</v>
+        <v>366.59952</v>
       </c>
     </row>
     <row r="788">
@@ -16123,7 +16123,7 @@
         <v>161.385</v>
       </c>
       <c r="F788" t="n">
-        <v>0.3653756400000001</v>
+        <v>365.3756400000001</v>
       </c>
     </row>
     <row r="789">
@@ -16143,7 +16143,7 @@
         <v>161.1</v>
       </c>
       <c r="F789" t="n">
-        <v>0.3653748000000001</v>
+        <v>365.3748000000001</v>
       </c>
     </row>
     <row r="790">
@@ -16163,7 +16163,7 @@
         <v>160.56</v>
       </c>
       <c r="F790" t="n">
-        <v>0.36415008</v>
+        <v>364.15008</v>
       </c>
     </row>
     <row r="791">
@@ -16183,7 +16183,7 @@
         <v>160.17</v>
       </c>
       <c r="F791" t="n">
-        <v>0.36262488</v>
+        <v>362.62488</v>
       </c>
     </row>
     <row r="792">
@@ -16203,7 +16203,7 @@
         <v>160.08</v>
       </c>
       <c r="F792" t="n">
-        <v>0.36306144</v>
+        <v>363.06144</v>
       </c>
     </row>
     <row r="793">
@@ -16223,7 +16223,7 @@
         <v>159.885</v>
       </c>
       <c r="F793" t="n">
-        <v>0.36261918</v>
+        <v>362.61918</v>
       </c>
     </row>
     <row r="794">
@@ -16243,7 +16243,7 @@
         <v>159.765</v>
       </c>
       <c r="F794" t="n">
-        <v>0.36170796</v>
+        <v>361.70796</v>
       </c>
     </row>
     <row r="795">
@@ -16263,7 +16263,7 @@
         <v>159.48</v>
       </c>
       <c r="F795" t="n">
-        <v>0.36170064</v>
+        <v>361.70064</v>
       </c>
     </row>
     <row r="796">
@@ -16283,7 +16283,7 @@
         <v>158.88</v>
       </c>
       <c r="F796" t="n">
-        <v>0.3590688</v>
+        <v>359.0688</v>
       </c>
     </row>
     <row r="797">
@@ -16303,7 +16303,7 @@
         <v>158.76</v>
       </c>
       <c r="F797" t="n">
-        <v>0.35943264</v>
+        <v>359.43264</v>
       </c>
     </row>
     <row r="798">
@@ -16323,7 +16323,7 @@
         <v>158.34</v>
       </c>
       <c r="F798" t="n">
-        <v>0.35848176</v>
+        <v>358.48176</v>
       </c>
     </row>
     <row r="799">
@@ -16343,7 +16343,7 @@
         <v>157.92</v>
       </c>
       <c r="F799" t="n">
-        <v>0.3575308800000001</v>
+        <v>357.5308800000001</v>
       </c>
     </row>
     <row r="800">
@@ -16363,7 +16363,7 @@
         <v>157.545</v>
       </c>
       <c r="F800" t="n">
-        <v>0.3560517</v>
+        <v>356.0517</v>
       </c>
     </row>
     <row r="801">
@@ -16383,7 +16383,7 @@
         <v>157.365</v>
       </c>
       <c r="F801" t="n">
-        <v>0.35627436</v>
+        <v>356.27436</v>
       </c>
     </row>
     <row r="802">
@@ -16403,7 +16403,7 @@
         <v>157.14</v>
       </c>
       <c r="F802" t="n">
-        <v>0.35639352</v>
+        <v>356.39352</v>
       </c>
     </row>
     <row r="803">
@@ -16423,7 +16423,7 @@
         <v>156.915</v>
       </c>
       <c r="F803" t="n">
-        <v>0.35588322</v>
+        <v>355.88322</v>
       </c>
     </row>
     <row r="804">
@@ -16443,7 +16443,7 @@
         <v>156.36</v>
       </c>
       <c r="F804" t="n">
-        <v>0.35399904</v>
+        <v>353.99904</v>
       </c>
     </row>
     <row r="805">
@@ -16463,7 +16463,7 @@
         <v>156.12</v>
       </c>
       <c r="F805" t="n">
-        <v>0.3528312</v>
+        <v>352.8312</v>
       </c>
     </row>
     <row r="806">
@@ -16483,7 +16483,7 @@
         <v>155.565</v>
       </c>
       <c r="F806" t="n">
-        <v>0.35219916</v>
+        <v>352.19916</v>
       </c>
     </row>
     <row r="807">
@@ -16503,7 +16503,7 @@
         <v>154.815</v>
       </c>
       <c r="F807" t="n">
-        <v>0.35050116</v>
+        <v>350.50116</v>
       </c>
     </row>
     <row r="808">
@@ -16523,7 +16523,7 @@
         <v>154.59</v>
       </c>
       <c r="F808" t="n">
-        <v>0.34999176</v>
+        <v>349.99176</v>
       </c>
     </row>
     <row r="809">
@@ -16543,7 +16543,7 @@
         <v>154.35</v>
       </c>
       <c r="F809" t="n">
-        <v>0.3494484</v>
+        <v>349.4484</v>
       </c>
     </row>
     <row r="810">
@@ -16563,7 +16563,7 @@
         <v>153.99</v>
       </c>
       <c r="F810" t="n">
-        <v>0.3480174</v>
+        <v>348.0174</v>
       </c>
     </row>
     <row r="811">
@@ -16583,7 +16583,7 @@
         <v>153.645</v>
       </c>
       <c r="F811" t="n">
-        <v>0.34662312</v>
+        <v>346.62312</v>
       </c>
     </row>
     <row r="812">
@@ -16603,7 +16603,7 @@
         <v>153.165</v>
       </c>
       <c r="F812" t="n">
-        <v>0.34676556</v>
+        <v>346.76556</v>
       </c>
     </row>
     <row r="813">
@@ -16623,7 +16623,7 @@
         <v>152.58</v>
       </c>
       <c r="F813" t="n">
-        <v>0.3448308</v>
+        <v>344.8308</v>
       </c>
     </row>
     <row r="814">
@@ -16643,7 +16643,7 @@
         <v>152.625</v>
       </c>
       <c r="F814" t="n">
-        <v>0.345543</v>
+        <v>345.543</v>
       </c>
     </row>
     <row r="815">
@@ -16663,7 +16663,7 @@
         <v>152.28</v>
       </c>
       <c r="F815" t="n">
-        <v>0.3447619200000001</v>
+        <v>344.7619200000001</v>
       </c>
     </row>
     <row r="816">
@@ -16683,7 +16683,7 @@
         <v>151.785</v>
       </c>
       <c r="F816" t="n">
-        <v>0.34060554</v>
+        <v>340.60554</v>
       </c>
     </row>
     <row r="817">
@@ -16703,7 +16703,7 @@
         <v>151.56</v>
       </c>
       <c r="F817" t="n">
-        <v>0.3431318400000001</v>
+        <v>343.1318400000001</v>
       </c>
     </row>
     <row r="818">
@@ -16723,7 +16723,7 @@
         <v>151.035</v>
       </c>
       <c r="F818" t="n">
-        <v>0.34194324</v>
+        <v>341.94324</v>
       </c>
     </row>
     <row r="819">
@@ -16743,7 +16743,7 @@
         <v>150.645</v>
       </c>
       <c r="F819" t="n">
-        <v>0.34106028</v>
+        <v>341.06028</v>
       </c>
     </row>
     <row r="820">
@@ -16763,7 +16763,7 @@
         <v>150.39</v>
       </c>
       <c r="F820" t="n">
-        <v>0.3398814</v>
+        <v>339.8814</v>
       </c>
     </row>
     <row r="821">
@@ -16783,7 +16783,7 @@
         <v>149.79</v>
       </c>
       <c r="F821" t="n">
-        <v>0.3385254</v>
+        <v>338.5254</v>
       </c>
     </row>
     <row r="822">
@@ -16803,7 +16803,7 @@
         <v>149.325</v>
       </c>
       <c r="F822" t="n">
-        <v>0.3374745</v>
+        <v>337.4745</v>
       </c>
     </row>
     <row r="823">
@@ -16823,7 +16823,7 @@
         <v>148.71</v>
       </c>
       <c r="F823" t="n">
-        <v>0.33548976</v>
+        <v>335.48976</v>
       </c>
     </row>
     <row r="824">
@@ -16843,7 +16843,7 @@
         <v>148.455</v>
       </c>
       <c r="F824" t="n">
-        <v>0.33491448</v>
+        <v>334.91448</v>
       </c>
     </row>
     <row r="825">
@@ -16863,7 +16863,7 @@
         <v>148.065</v>
       </c>
       <c r="F825" t="n">
-        <v>0.33403464</v>
+        <v>334.03464</v>
       </c>
     </row>
     <row r="826">
@@ -16883,7 +16883,7 @@
         <v>147.39</v>
       </c>
       <c r="F826" t="n">
-        <v>0.33133272</v>
+        <v>331.3327200000001</v>
       </c>
     </row>
     <row r="827">
@@ -16903,7 +16903,7 @@
         <v>147.12</v>
       </c>
       <c r="F827" t="n">
-        <v>0.3324912</v>
+        <v>332.4912</v>
       </c>
     </row>
     <row r="828">
@@ -16923,7 +16923,7 @@
         <v>146.7</v>
       </c>
       <c r="F828" t="n">
-        <v>0.331542</v>
+        <v>331.542</v>
       </c>
     </row>
     <row r="829">
@@ -16943,7 +16943,7 @@
         <v>146.28</v>
       </c>
       <c r="F829" t="n">
-        <v>0.33000768</v>
+        <v>330.0076800000001</v>
       </c>
     </row>
     <row r="830">
@@ -16963,7 +16963,7 @@
         <v>145.8</v>
       </c>
       <c r="F830" t="n">
-        <v>0.329508</v>
+        <v>329.508</v>
       </c>
     </row>
     <row r="831">
@@ -16983,7 +16983,7 @@
         <v>145.2</v>
       </c>
       <c r="F831" t="n">
-        <v>0.328152</v>
+        <v>328.152</v>
       </c>
     </row>
     <row r="832">
@@ -17003,7 +17003,7 @@
         <v>144.12</v>
       </c>
       <c r="F832" t="n">
-        <v>0.32513472</v>
+        <v>325.13472</v>
       </c>
     </row>
     <row r="833">
@@ -17023,7 +17023,7 @@
         <v>143.7</v>
       </c>
       <c r="F833" t="n">
-        <v>0.324762</v>
+        <v>324.762</v>
       </c>
     </row>
     <row r="834">
@@ -17043,7 +17043,7 @@
         <v>143.16</v>
       </c>
       <c r="F834" t="n">
-        <v>0.3241142400000001</v>
+        <v>324.1142400000001</v>
       </c>
     </row>
     <row r="835">
@@ -17063,7 +17063,7 @@
         <v>142.665</v>
       </c>
       <c r="F835" t="n">
-        <v>0.32128158</v>
+        <v>321.28158</v>
       </c>
     </row>
     <row r="836">
@@ -17083,7 +17083,7 @@
         <v>142.275</v>
       </c>
       <c r="F836" t="n">
-        <v>0.3215415</v>
+        <v>321.5415</v>
       </c>
     </row>
     <row r="837">
@@ -17103,7 +17103,7 @@
         <v>141.735</v>
       </c>
       <c r="F837" t="n">
-        <v>0.3203211</v>
+        <v>320.3211</v>
       </c>
     </row>
     <row r="838">
@@ -17123,7 +17123,7 @@
         <v>141.09</v>
       </c>
       <c r="F838" t="n">
-        <v>0.31773468</v>
+        <v>317.73468</v>
       </c>
     </row>
     <row r="839">
@@ -17143,7 +17143,7 @@
         <v>140.535</v>
       </c>
       <c r="F839" t="n">
-        <v>0.31592268</v>
+        <v>315.92268</v>
       </c>
     </row>
     <row r="840">
@@ -17163,7 +17163,7 @@
         <v>139.92</v>
       </c>
       <c r="F840" t="n">
-        <v>0.31454016</v>
+        <v>314.54016</v>
       </c>
     </row>
     <row r="841">
@@ -17183,7 +17183,7 @@
         <v>139.56</v>
       </c>
       <c r="F841" t="n">
-        <v>0.31428912</v>
+        <v>314.28912</v>
       </c>
     </row>
     <row r="842">
@@ -17203,7 +17203,7 @@
         <v>139.065</v>
       </c>
       <c r="F842" t="n">
-        <v>0.3137306400000001</v>
+        <v>313.7306400000001</v>
       </c>
     </row>
     <row r="843">
@@ -17223,7 +17223,7 @@
         <v>138.435</v>
       </c>
       <c r="F843" t="n">
-        <v>0.31175562</v>
+        <v>311.75562</v>
       </c>
     </row>
     <row r="844">
@@ -17243,7 +17243,7 @@
         <v>138.045</v>
       </c>
       <c r="F844" t="n">
-        <v>0.31087734</v>
+        <v>310.87734</v>
       </c>
     </row>
     <row r="845">
@@ -17263,7 +17263,7 @@
         <v>137.31</v>
       </c>
       <c r="F845" t="n">
-        <v>0.30867288</v>
+        <v>308.67288</v>
       </c>
     </row>
     <row r="846">
@@ -17283,7 +17283,7 @@
         <v>136.65</v>
       </c>
       <c r="F846" t="n">
-        <v>0.3082824000000001</v>
+        <v>308.2824000000001</v>
       </c>
     </row>
     <row r="847">
@@ -17303,7 +17303,7 @@
         <v>136.05</v>
       </c>
       <c r="F847" t="n">
-        <v>0.3058404</v>
+        <v>305.8404</v>
       </c>
     </row>
     <row r="848">
@@ -17323,7 +17323,7 @@
         <v>135.45</v>
       </c>
       <c r="F848" t="n">
-        <v>0.3039498</v>
+        <v>303.9498</v>
       </c>
     </row>
     <row r="849">
@@ -17343,7 +17343,7 @@
         <v>134.7</v>
       </c>
       <c r="F849" t="n">
-        <v>0.3033444</v>
+        <v>303.3444</v>
       </c>
     </row>
     <row r="850">
@@ -17363,7 +17363,7 @@
         <v>134.115</v>
       </c>
       <c r="F850" t="n">
-        <v>0.30095406</v>
+        <v>300.95406</v>
       </c>
     </row>
     <row r="851">
@@ -17383,7 +17383,7 @@
         <v>133.605</v>
       </c>
       <c r="F851" t="n">
-        <v>0.30141288</v>
+        <v>301.41288</v>
       </c>
     </row>
     <row r="852">
@@ -17403,7 +17403,7 @@
         <v>132.915</v>
       </c>
       <c r="F852" t="n">
-        <v>0.29879292</v>
+        <v>298.79292</v>
       </c>
     </row>
     <row r="853">
@@ -17423,7 +17423,7 @@
         <v>132.345</v>
       </c>
       <c r="F853" t="n">
-        <v>0.2964528</v>
+        <v>296.4528</v>
       </c>
     </row>
     <row r="854">
@@ -17443,7 +17443,7 @@
         <v>131.505</v>
       </c>
       <c r="F854" t="n">
-        <v>0.29509722</v>
+        <v>295.09722</v>
       </c>
     </row>
     <row r="855">
@@ -17463,7 +17463,7 @@
         <v>130.74</v>
       </c>
       <c r="F855" t="n">
-        <v>0.29442648</v>
+        <v>294.42648</v>
       </c>
     </row>
     <row r="856">
@@ -17483,7 +17483,7 @@
         <v>130.185</v>
       </c>
       <c r="F856" t="n">
-        <v>0.29265588</v>
+        <v>292.65588</v>
       </c>
     </row>
     <row r="857">
@@ -17503,7 +17503,7 @@
         <v>129.57</v>
       </c>
       <c r="F857" t="n">
-        <v>0.29127336</v>
+        <v>291.27336</v>
       </c>
     </row>
     <row r="858">
@@ -17523,7 +17523,7 @@
         <v>129.165</v>
       </c>
       <c r="F858" t="n">
-        <v>0.28984626</v>
+        <v>289.84626</v>
       </c>
     </row>
     <row r="859">
@@ -17543,7 +17543,7 @@
         <v>128.46</v>
       </c>
       <c r="F859" t="n">
-        <v>0.28826424</v>
+        <v>288.26424</v>
       </c>
     </row>
     <row r="860">
@@ -17563,7 +17563,7 @@
         <v>127.53</v>
       </c>
       <c r="F860" t="n">
-        <v>0.28668744</v>
+        <v>286.68744</v>
       </c>
     </row>
     <row r="861">
@@ -17583,7 +17583,7 @@
         <v>126.705</v>
       </c>
       <c r="F861" t="n">
-        <v>0.28280556</v>
+        <v>282.80556</v>
       </c>
     </row>
     <row r="862">
@@ -17603,7 +17603,7 @@
         <v>126.15</v>
       </c>
       <c r="F862" t="n">
-        <v>0.2830806</v>
+        <v>283.0806</v>
       </c>
     </row>
     <row r="863">
@@ -17623,7 +17623,7 @@
         <v>125.34</v>
       </c>
       <c r="F863" t="n">
-        <v>0.28126296</v>
+        <v>281.26296</v>
       </c>
     </row>
     <row r="864">
@@ -17643,7 +17643,7 @@
         <v>124.695</v>
       </c>
       <c r="F864" t="n">
-        <v>0.28131192</v>
+        <v>281.31192</v>
       </c>
     </row>
     <row r="865">
@@ -17663,7 +17663,7 @@
         <v>123.855</v>
       </c>
       <c r="F865" t="n">
-        <v>0.2774352</v>
+        <v>277.4352</v>
       </c>
     </row>
     <row r="866">
@@ -17683,7 +17683,7 @@
         <v>122.955</v>
       </c>
       <c r="F866" t="n">
-        <v>0.2754192</v>
+        <v>275.4192</v>
       </c>
     </row>
     <row r="867">
@@ -17703,7 +17703,7 @@
         <v>122.1</v>
       </c>
       <c r="F867" t="n">
-        <v>0.2739924</v>
+        <v>273.9924</v>
       </c>
     </row>
     <row r="868">
@@ -17723,7 +17723,7 @@
         <v>121.14</v>
       </c>
       <c r="F868" t="n">
-        <v>0.2708690400000001</v>
+        <v>270.8690400000001</v>
       </c>
     </row>
     <row r="869">
@@ -17743,7 +17743,7 @@
         <v>120.525</v>
       </c>
       <c r="F869" t="n">
-        <v>0.2704581</v>
+        <v>270.4581</v>
       </c>
     </row>
     <row r="870">
@@ -17763,7 +17763,7 @@
         <v>119.76</v>
       </c>
       <c r="F870" t="n">
-        <v>0.2682624</v>
+        <v>268.2624</v>
       </c>
     </row>
     <row r="871">
@@ -17783,7 +17783,7 @@
         <v>118.98</v>
       </c>
       <c r="F871" t="n">
-        <v>0.26603928</v>
+        <v>266.03928</v>
       </c>
     </row>
     <row r="872">
@@ -17803,7 +17803,7 @@
         <v>118.215</v>
       </c>
       <c r="F872" t="n">
-        <v>0.26432874</v>
+        <v>264.32874</v>
       </c>
     </row>
     <row r="873">
@@ -17823,7 +17823,7 @@
         <v>117.33</v>
       </c>
       <c r="F873" t="n">
-        <v>0.26234988</v>
+        <v>262.34988</v>
       </c>
     </row>
     <row r="874">
@@ -17843,7 +17843,7 @@
         <v>116.595</v>
       </c>
       <c r="F874" t="n">
-        <v>0.26070642</v>
+        <v>260.70642</v>
       </c>
     </row>
     <row r="875">
@@ -17863,7 +17863,7 @@
         <v>115.5</v>
       </c>
       <c r="F875" t="n">
-        <v>0.258258</v>
+        <v>258.258</v>
       </c>
     </row>
     <row r="876">
@@ -17883,7 +17883,7 @@
         <v>114.48</v>
       </c>
       <c r="F876" t="n">
-        <v>0.2564352</v>
+        <v>256.4352</v>
       </c>
     </row>
     <row r="877">
@@ -17903,7 +17903,7 @@
         <v>113.925</v>
       </c>
       <c r="F877" t="n">
-        <v>0.2542806</v>
+        <v>254.2806</v>
       </c>
     </row>
     <row r="878">
@@ -17923,7 +17923,7 @@
         <v>112.95</v>
       </c>
       <c r="F878" t="n">
-        <v>0.2525562</v>
+        <v>252.5562</v>
       </c>
     </row>
     <row r="879">
@@ -17943,7 +17943,7 @@
         <v>111.945</v>
       </c>
       <c r="F879" t="n">
-        <v>0.24986124</v>
+        <v>249.86124</v>
       </c>
     </row>
     <row r="880">
@@ -17963,7 +17963,7 @@
         <v>111.15</v>
       </c>
       <c r="F880" t="n">
-        <v>0.2485314</v>
+        <v>248.5314</v>
       </c>
     </row>
     <row r="881">
@@ -17983,7 +17983,7 @@
         <v>110.445</v>
       </c>
       <c r="F881" t="n">
-        <v>0.24651324</v>
+        <v>246.51324</v>
       </c>
     </row>
     <row r="882">
@@ -18003,7 +18003,7 @@
         <v>109.725</v>
       </c>
       <c r="F882" t="n">
-        <v>0.2449062</v>
+        <v>244.9062</v>
       </c>
     </row>
     <row r="883">
@@ -18023,7 +18023,7 @@
         <v>107.205</v>
       </c>
       <c r="F883" t="n">
-        <v>0.23928156</v>
+        <v>239.28156</v>
       </c>
     </row>
     <row r="884">
@@ -18043,7 +18043,7 @@
         <v>107.79</v>
       </c>
       <c r="F884" t="n">
-        <v>0.24058728</v>
+        <v>240.58728</v>
       </c>
     </row>
     <row r="885">
@@ -18063,7 +18063,7 @@
         <v>107.04</v>
       </c>
       <c r="F885" t="n">
-        <v>0.23891328</v>
+        <v>238.91328</v>
       </c>
     </row>
     <row r="886">
@@ -18083,7 +18083,7 @@
         <v>105.69</v>
       </c>
       <c r="F886" t="n">
-        <v>0.23547732</v>
+        <v>235.47732</v>
       </c>
     </row>
     <row r="887">
@@ -18103,7 +18103,7 @@
         <v>104.7</v>
       </c>
       <c r="F887" t="n">
-        <v>0.2336904</v>
+        <v>233.6904</v>
       </c>
     </row>
     <row r="888">
@@ -18123,7 +18123,7 @@
         <v>103.875</v>
       </c>
       <c r="F888" t="n">
-        <v>0.2314335</v>
+        <v>231.4335</v>
       </c>
     </row>
     <row r="889">
@@ -18143,7 +18143,7 @@
         <v>103.005</v>
       </c>
       <c r="F889" t="n">
-        <v>0.22949514</v>
+        <v>229.49514</v>
       </c>
     </row>
     <row r="890">
@@ -18163,7 +18163,7 @@
         <v>102.135</v>
       </c>
       <c r="F890" t="n">
-        <v>0.22755678</v>
+        <v>227.55678</v>
       </c>
     </row>
     <row r="891">
@@ -18183,7 +18183,7 @@
         <v>101.1</v>
       </c>
       <c r="F891" t="n">
-        <v>0.2252508</v>
+        <v>225.2508</v>
       </c>
     </row>
     <row r="892">
@@ -18203,7 +18203,7 @@
         <v>100.02</v>
       </c>
       <c r="F892" t="n">
-        <v>0.22284456</v>
+        <v>222.84456</v>
       </c>
     </row>
     <row r="893">
@@ -18223,7 +18223,7 @@
         <v>98.91</v>
       </c>
       <c r="F893" t="n">
-        <v>0.21997584</v>
+        <v>219.97584</v>
       </c>
     </row>
     <row r="894">
@@ -18243,7 +18243,7 @@
         <v>97.36499999999999</v>
       </c>
       <c r="F894" t="n">
-        <v>0.21653976</v>
+        <v>216.53976</v>
       </c>
     </row>
     <row r="895">
@@ -18263,7 +18263,7 @@
         <v>96.22499999999999</v>
       </c>
       <c r="F895" t="n">
-        <v>0.2140044</v>
+        <v>214.0044</v>
       </c>
     </row>
     <row r="896">
@@ -18283,7 +18283,7 @@
         <v>95.31</v>
       </c>
       <c r="F896" t="n">
-        <v>0.21196944</v>
+        <v>211.96944</v>
       </c>
     </row>
     <row r="897">
@@ -18303,7 +18303,7 @@
         <v>94.41</v>
       </c>
       <c r="F897" t="n">
-        <v>0.2095902</v>
+        <v>209.5902</v>
       </c>
     </row>
     <row r="898">
@@ -18323,7 +18323,7 @@
         <v>93.765</v>
       </c>
       <c r="F898" t="n">
-        <v>0.20890842</v>
+        <v>208.90842</v>
       </c>
     </row>
     <row r="899">
@@ -18343,7 +18343,7 @@
         <v>92.81999999999999</v>
       </c>
       <c r="F899" t="n">
-        <v>0.2060604</v>
+        <v>206.0604</v>
       </c>
     </row>
     <row r="900">
@@ -18363,7 +18363,7 @@
         <v>91.89</v>
       </c>
       <c r="F900" t="n">
-        <v>0.2039958</v>
+        <v>203.9958</v>
       </c>
     </row>
     <row r="901">
@@ -18383,7 +18383,7 @@
         <v>90.86999999999999</v>
       </c>
       <c r="F901" t="n">
-        <v>0.20209488</v>
+        <v>202.09488</v>
       </c>
     </row>
     <row r="902">
@@ -18403,7 +18403,7 @@
         <v>90.015</v>
       </c>
       <c r="F902" t="n">
-        <v>0.20019336</v>
+        <v>200.19336</v>
       </c>
     </row>
     <row r="903">
@@ -18423,7 +18423,7 @@
         <v>88.77</v>
       </c>
       <c r="F903" t="n">
-        <v>0.1970694</v>
+        <v>197.0694</v>
       </c>
     </row>
     <row r="904">
@@ -18443,7 +18443,7 @@
         <v>87.78</v>
       </c>
       <c r="F904" t="n">
-        <v>0.19452048</v>
+        <v>194.52048</v>
       </c>
     </row>
     <row r="905">
@@ -18463,7 +18463,7 @@
         <v>86.955</v>
       </c>
       <c r="F905" t="n">
-        <v>0.19234446</v>
+        <v>192.34446</v>
       </c>
     </row>
     <row r="906">
@@ -18483,7 +18483,7 @@
         <v>85.97999999999999</v>
       </c>
       <c r="F906" t="n">
-        <v>0.1908756</v>
+        <v>190.8756</v>
       </c>
     </row>
     <row r="907">
@@ -18503,7 +18503,7 @@
         <v>84.045</v>
       </c>
       <c r="F907" t="n">
-        <v>0.18624372</v>
+        <v>186.24372</v>
       </c>
     </row>
     <row r="908">
@@ -18523,7 +18523,7 @@
         <v>82.545</v>
       </c>
       <c r="F908" t="n">
-        <v>0.18291972</v>
+        <v>182.91972</v>
       </c>
     </row>
     <row r="909">
@@ -18543,7 +18543,7 @@
         <v>81.705</v>
       </c>
       <c r="F909" t="n">
-        <v>0.18073146</v>
+        <v>180.73146</v>
       </c>
     </row>
     <row r="910">
@@ -18563,7 +18563,7 @@
         <v>79.69499999999999</v>
       </c>
       <c r="F910" t="n">
-        <v>0.175329</v>
+        <v>175.329</v>
       </c>
     </row>
     <row r="911">
@@ -18583,7 +18583,7 @@
         <v>78.20999999999999</v>
       </c>
       <c r="F911" t="n">
-        <v>0.17331336</v>
+        <v>173.31336</v>
       </c>
     </row>
     <row r="912">
@@ -18603,7 +18603,7 @@
         <v>77.625</v>
       </c>
       <c r="F912" t="n">
-        <v>0.171396</v>
+        <v>171.396</v>
       </c>
     </row>
     <row r="913">
@@ -18623,7 +18623,7 @@
         <v>76.455</v>
       </c>
       <c r="F913" t="n">
-        <v>0.16911846</v>
+        <v>169.11846</v>
       </c>
     </row>
     <row r="914">
@@ -18643,7 +18643,7 @@
         <v>75.36</v>
       </c>
       <c r="F914" t="n">
-        <v>0.16699776</v>
+        <v>166.99776</v>
       </c>
     </row>
     <row r="915">
@@ -18663,7 +18663,7 @@
         <v>74.77499999999999</v>
       </c>
       <c r="F915" t="n">
-        <v>0.1651032</v>
+        <v>165.1032</v>
       </c>
     </row>
     <row r="916">
@@ -18683,7 +18683,7 @@
         <v>73.965</v>
       </c>
       <c r="F916" t="n">
-        <v>0.16390644</v>
+        <v>163.90644</v>
       </c>
     </row>
     <row r="917">
@@ -18703,7 +18703,7 @@
         <v>72.645</v>
       </c>
       <c r="F917" t="n">
-        <v>0.15923784</v>
+        <v>159.23784</v>
       </c>
     </row>
   </sheetData>
